--- a/data/hotels_by_city/Denver/Denver_shard_141.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_141.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="752">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d120068-Reviews-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Holiday-Inn-Express-Denver-Aurora-Medical-Center.h23258.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,2162 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r601135460-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>120068</t>
+  </si>
+  <si>
+    <t>601135460</t>
+  </si>
+  <si>
+    <t>07/30/2018</t>
+  </si>
+  <si>
+    <t>Hotel under construction and flooded</t>
+  </si>
+  <si>
+    <t>The standing water on the carpets soaked our shoes on the walk to the room.  The nice gentleman sitting by the door drinking out of a paper bag let me know the lock was broken so I didn't need my key.  We found the hotel being remodeled, they put us in one of the remodeled rooms.  If i wasn't totally exhausted driving into the wee hours I would've stayed elsewhere.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r595248243-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>595248243</t>
+  </si>
+  <si>
+    <t>07/11/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average HI Express under construction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pros.   Reasonable lodging prices, free breakfast clean rooms. Authentic mexican food driving distance.  Easy access to freeway. Cons.  Currently under construction, hard to find w standard signage missing, average workout room and not much to walk to.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r592428255-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>592428255</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Disappointing.</t>
+  </si>
+  <si>
+    <t>We stayed 1 night on 6/30/2018 and the hotel was not up to Holiday Inn standards. 
+We can start with the fact that without any mention on the website, there is pretty major construction going on and let me tell ya, there is nothing like getting off the elevator to the overwhelming smell of paint to wake you up in the morning. If a hotel if renovating 7 days a week, they should put a notice on the website so folks can determine if that is something they want to put up with during their stay.
+The bathroom door didn't close, it was as if it was too bit for the opening. The shower didn't drain, so after a couple minutes into my shower I realized that I needed to either hurry up, or flood the bathroom. 
+The TV remote doesn't turn off and on the TV, which isn't a huge deal but still annoying when you want to turn the TV off and go to sleep. 
+2 of the lamps in the room didn't have light bulbs in them making the room very dark. 
+the fridge was set properly, but froze everything that we put in it, it wasn't much, leftovers from the restaurant, couple sodas and a bottle of water, but it just added to a poor experience. 
+Lastly the room was very loud, between the construction going on, on a Sunday, and the road noise, it was...We stayed 1 night on 6/30/2018 and the hotel was not up to Holiday Inn standards. We can start with the fact that without any mention on the website, there is pretty major construction going on and let me tell ya, there is nothing like getting off the elevator to the overwhelming smell of paint to wake you up in the morning. If a hotel if renovating 7 days a week, they should put a notice on the website so folks can determine if that is something they want to put up with during their stay.The bathroom door didn't close, it was as if it was too bit for the opening. The shower didn't drain, so after a couple minutes into my shower I realized that I needed to either hurry up, or flood the bathroom. The TV remote doesn't turn off and on the TV, which isn't a huge deal but still annoying when you want to turn the TV off and go to sleep. 2 of the lamps in the room didn't have light bulbs in them making the room very dark. the fridge was set properly, but froze everything that we put in it, it wasn't much, leftovers from the restaurant, couple sodas and a bottle of water, but it just added to a poor experience.  Lastly the room was very loud, between the construction going on, on a Sunday, and the road noise, it was hard to sleep. The road noise and the location would make this hotel a 4/5 on a good day in my eyes, but with the rest of the problems we encountered, I can only give this place 1/5. it was a poor experience and I will not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>We stayed 1 night on 6/30/2018 and the hotel was not up to Holiday Inn standards. 
+We can start with the fact that without any mention on the website, there is pretty major construction going on and let me tell ya, there is nothing like getting off the elevator to the overwhelming smell of paint to wake you up in the morning. If a hotel if renovating 7 days a week, they should put a notice on the website so folks can determine if that is something they want to put up with during their stay.
+The bathroom door didn't close, it was as if it was too bit for the opening. The shower didn't drain, so after a couple minutes into my shower I realized that I needed to either hurry up, or flood the bathroom. 
+The TV remote doesn't turn off and on the TV, which isn't a huge deal but still annoying when you want to turn the TV off and go to sleep. 
+2 of the lamps in the room didn't have light bulbs in them making the room very dark. 
+the fridge was set properly, but froze everything that we put in it, it wasn't much, leftovers from the restaurant, couple sodas and a bottle of water, but it just added to a poor experience. 
+Lastly the room was very loud, between the construction going on, on a Sunday, and the road noise, it was...We stayed 1 night on 6/30/2018 and the hotel was not up to Holiday Inn standards. We can start with the fact that without any mention on the website, there is pretty major construction going on and let me tell ya, there is nothing like getting off the elevator to the overwhelming smell of paint to wake you up in the morning. If a hotel if renovating 7 days a week, they should put a notice on the website so folks can determine if that is something they want to put up with during their stay.The bathroom door didn't close, it was as if it was too bit for the opening. The shower didn't drain, so after a couple minutes into my shower I realized that I needed to either hurry up, or flood the bathroom. The TV remote doesn't turn off and on the TV, which isn't a huge deal but still annoying when you want to turn the TV off and go to sleep. 2 of the lamps in the room didn't have light bulbs in them making the room very dark. the fridge was set properly, but froze everything that we put in it, it wasn't much, leftovers from the restaurant, couple sodas and a bottle of water, but it just added to a poor experience.  Lastly the room was very loud, between the construction going on, on a Sunday, and the road noise, it was hard to sleep. The road noise and the location would make this hotel a 4/5 on a good day in my eyes, but with the rest of the problems we encountered, I can only give this place 1/5. it was a poor experience and I will not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r574749224-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>574749224</t>
+  </si>
+  <si>
+    <t>04/21/2018</t>
+  </si>
+  <si>
+    <t>No hot water, lots of construction noise</t>
+  </si>
+  <si>
+    <t>Shower in the morning was icy cold, no hot water. Told the front desk about this, they said they had shut off the hot water for construction. Why shut the water off in the morning and not tell the guests? And our 3rd floor room was extremely noisy due to construction on the 4th floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2018</t>
+  </si>
+  <si>
+    <t>Shower in the morning was icy cold, no hot water. Told the front desk about this, they said they had shut off the hot water for construction. Why shut the water off in the morning and not tell the guests? And our 3rd floor room was extremely noisy due to construction on the 4th floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r565941044-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>565941044</t>
+  </si>
+  <si>
+    <t>03/11/2018</t>
+  </si>
+  <si>
+    <t>Meh</t>
+  </si>
+  <si>
+    <t>For a hotel under a bit of construction really not that bad.   The staff was very friendly.  The room was a typical room and was actually comfy.  Where it didn't measure up was the overall noise level in the room.   The windows let in quite a bit of noise from traffic outside.  The air conditioner was extremely loud and continually turning on and off.  Breakfast was the typical continental variety however it took a turn for the worst when they didn't have any coffee.   What's more is that several people had informed them of this nothing was done until 15-20 minutes later.  Huge disappoinent for me.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded March 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 25, 2018</t>
+  </si>
+  <si>
+    <t>For a hotel under a bit of construction really not that bad.   The staff was very friendly.  The room was a typical room and was actually comfy.  Where it didn't measure up was the overall noise level in the room.   The windows let in quite a bit of noise from traffic outside.  The air conditioner was extremely loud and continually turning on and off.  Breakfast was the typical continental variety however it took a turn for the worst when they didn't have any coffee.   What's more is that several people had informed them of this nothing was done until 15-20 minutes later.  Huge disappoinent for me.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r559795909-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>559795909</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Good Staff, Mediocre Property</t>
+  </si>
+  <si>
+    <t>The best thing about the Holiday Inn Express is that it is directly across from the Denver Light Rail stop.  The property itself is old and worn, although the staff explained to me that it is about to undergo a complete renovation and be re-branded as La Quinta.  The front desk staff is good, but the cleaning staff could use some improvement.  Breakfast is not bad and the coffee is good.  Will probably be much better after the renovations.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded February 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 26, 2018</t>
+  </si>
+  <si>
+    <t>The best thing about the Holiday Inn Express is that it is directly across from the Denver Light Rail stop.  The property itself is old and worn, although the staff explained to me that it is about to undergo a complete renovation and be re-branded as La Quinta.  The front desk staff is good, but the cleaning staff could use some improvement.  Breakfast is not bad and the coffee is good.  Will probably be much better after the renovations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r532150544-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>532150544</t>
+  </si>
+  <si>
+    <t>10/11/2017</t>
+  </si>
+  <si>
+    <t>Great location Just off of I-225</t>
+  </si>
+  <si>
+    <t>Room was great and the breakfast was one of the best I have had at Holiday Inn Express.  The location is a 50 yard walk to the Light Rail System that covers most of greater Denver.It is very close to a very large shopping center also.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Stephanie G, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 13, 2017</t>
+  </si>
+  <si>
+    <t>Room was great and the breakfast was one of the best I have had at Holiday Inn Express.  The location is a 50 yard walk to the Light Rail System that covers most of greater Denver.It is very close to a very large shopping center also.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r522807016-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>522807016</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Stay here if you want them giving keys to your room to strangers</t>
+  </si>
+  <si>
+    <t>From our own experience, and I see it has happened to other reviewers as well, this hotel has some level of incompetence in giving out keys to occupied rooms to people checking in.  This is completely UNACCEPTABLE, and there should be controls in place to prevent such mistakes from EVER happening. This is a major safety concern for anyone staying there. Fortunately, the people were not in the room at the time I barged into their room to  find their luggage laid out.   And then when such error is brought to the front desk, it should be met with SINCERE apologies, rather than an attitude, excuses, and blaming other incompetent workers.  I don't care if you personally made the mistake or not, you represent the business that made the mistake.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>From our own experience, and I see it has happened to other reviewers as well, this hotel has some level of incompetence in giving out keys to occupied rooms to people checking in.  This is completely UNACCEPTABLE, and there should be controls in place to prevent such mistakes from EVER happening. This is a major safety concern for anyone staying there. Fortunately, the people were not in the room at the time I barged into their room to  find their luggage laid out.   And then when such error is brought to the front desk, it should be met with SINCERE apologies, rather than an attitude, excuses, and blaming other incompetent workers.  I don't care if you personally made the mistake or not, you represent the business that made the mistake.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r522743350-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>522743350</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Nice place to stay. Location is handy, easy to get to. Rooms are neat and clean, and the facility seems to be well maintained. Desk staff is friendly, check in process was simple and efficient.We would stay again without hesitation.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r509512588-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>509512588</t>
+  </si>
+  <si>
+    <t>08/06/2017</t>
+  </si>
+  <si>
+    <t>Nightmare at the Holiday Inn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We checked in at about 8:30PM. Our first room was already occupied.  That was our FIRST room.  Our 2nd room had a water leak, and it took more than 40 minutes after going to the front desk for anyone to check it, which they didn't, just finally switched us to our THIRD room.  It was also occupied.  At 10:20 PM we finally got a dry, unoccupied room.  I've asked to see the manager in the morning.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r507053024-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>507053024</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very disappointed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm a Spire member and am very disappointed in this hotel. No milk for breakfast, juice machine broke, pancake maker out of service. Stayed 5 nights, room was serviced only once, after I requested. AC unit in room had to be repaired. On last day of stay the breakfast area was crowded with employees eating breakfast.  The guests had a hard time getting food and coffee. My opinion, very poorly managed facility. Frank was very friendly and helpful.  Doubt if I'll stay there again unless it improves. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r506123600-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>506123600</t>
+  </si>
+  <si>
+    <t>07/27/2017</t>
+  </si>
+  <si>
+    <t>Shout out to Joann Sanchez (great employee!)</t>
+  </si>
+  <si>
+    <t>I would like to give a shout out to Joann Sanchez from the HI Express Medical Center in Aurora, CO. I stayed at this property 7-20-17. Joann went above and beyond accommodating me. I had a key hiccup and she went above and beyond making sure all was fine. She was also very pleasant and welcomed me to Aurora etc. Just a really nice person, great employee and such a good ambassador for the Holiday Inn. Do not let her go anywhere! Thank youMoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2017</t>
+  </si>
+  <si>
+    <t>I would like to give a shout out to Joann Sanchez from the HI Express Medical Center in Aurora, CO. I stayed at this property 7-20-17. Joann went above and beyond accommodating me. I had a key hiccup and she went above and beyond making sure all was fine. She was also very pleasant and welcomed me to Aurora etc. Just a really nice person, great employee and such a good ambassador for the Holiday Inn. Do not let her go anywhere! Thank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r503471243-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>503471243</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>I stayed here for business in Centennial. The hotel was nice and the service was consistent. I will stay here again in the future. The room was clean but the trash cans were full near the vending machines on the 4th floor. When I let the front desk staff know it remained full and there was then trash bags on the floor. I was here for a few days and it was still full on the morning that I checked out. Other than that good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for business in Centennial. The hotel was nice and the service was consistent. I will stay here again in the future. The room was clean but the trash cans were full near the vending machines on the 4th floor. When I let the front desk staff know it remained full and there was then trash bags on the floor. I was here for a few days and it was still full on the morning that I checked out. Other than that good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r497682144-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>497682144</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worst Holiday Inn Express </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was the worst Holiday Inn Express we have ever stayed in. The house keeping was horrible, twice we came back to our room after they had cleaned and the door wasn't locked.  Breakfast was horrible, they were out of major things everyday and the pancake machine was broken the whole week we were there.  The staff was frequently out smoking with guest at the desk waiting.  Trash was on the floor for several days(pictured) and several things were broken. Not a good experience at all.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r497529442-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>497529442</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Dirty and rude customer service at front desk</t>
+  </si>
+  <si>
+    <t>Pictures online are not what it is in person. Shower curtain was broken, mold and mildew all over tiles in shower, gaps of paint missing off bath tub, a wad of hair was hanging from the ceiling above one of the beds, the fire detector/alarm was hanging off the ceiling, the bed was uncomfortable, the outlet behind the bed was uncovered and a fire hazard, the main door to the room was unfitted and you could see the hallway clearly with he door shut, along with the molding around it broken, house keeping ignores signs on doors and try to enter room anyway.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r472658786-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>472658786</t>
+  </si>
+  <si>
+    <t>04/04/2017</t>
+  </si>
+  <si>
+    <t>Friendliest Staff</t>
+  </si>
+  <si>
+    <t>This Holiday Inn seems to be new. The rooms and lobby where very tastefully decorated and clean. The front desk staff was always polite Ns helpful. They offered recommendations for restaurants and alternative pool use since the outside pool was not open yet.The breakfast was always stocked well and the coffee always hot and available.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>This Holiday Inn seems to be new. The rooms and lobby where very tastefully decorated and clean. The front desk staff was always polite Ns helpful. They offered recommendations for restaurants and alternative pool use since the outside pool was not open yet.The breakfast was always stocked well and the coffee always hot and available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r465567919-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>465567919</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Staff was very friendly but not the best overall experience</t>
+  </si>
+  <si>
+    <t>My biggest gripe was with the breakfast service.  Gave them 3 chances and each time it was either cold eggs, or they had been sitting so long they were crusty on top.  Twice got to the breakfast and there was no sausages or bacon.  Very disappointing.  I travel a lot and always try to stay at Holiday Inn Express for the quick and easy breakfast plus the consistently clean rooms.  Desk staff were great and the room was good.  Breakfast was horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>My biggest gripe was with the breakfast service.  Gave them 3 chances and each time it was either cold eggs, or they had been sitting so long they were crusty on top.  Twice got to the breakfast and there was no sausages or bacon.  Very disappointing.  I travel a lot and always try to stay at Holiday Inn Express for the quick and easy breakfast plus the consistently clean rooms.  Desk staff were great and the room was good.  Breakfast was horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r452120753-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>452120753</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Very pleasant stay</t>
+  </si>
+  <si>
+    <t>We stayed here four nights while visiting family in the area. The front desk staff were always friendly and efficient. The room was nice and the bed was comfy. They had the standard HI express breakfast that was kept full and hot. The breakfast area was always clean and they made sure everyone had what they needed. The manager came through the breakfast area to check on everyone, which I thought was a nice touch. I would recommend this hotel if in the area.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r402828405-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>402828405</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Reseach your hotels</t>
+  </si>
+  <si>
+    <t>Prior to making the reservation on line, I called the hotel directly and spoke to a young man. I asked him if the hotel had a complimentary airport shuttle. He answered "Yes, the shuttle runs from 8am-8pm" I thanked him and proceed to make my reservation at the property. Fast forward to our arrival date, our plane arrives at 7:15pm and we called for a shuttle pick up. We were informed there is a 24 hour shuttle request notice and not shuttle is available. I told the woman I was only told the shuttle hours not that there was any reservation required. She told me they do not have shuttle driver working that night. We had no other options but to take a cab that cost over $50.00 to the property. The reason I made the reservation that the property is that I was told there was an airport shuttle that ran from 8am-8pm. I am disappointed in the misinformation I was given and the lack of concern or responsibly the front desk attendant had for guests.
+Other than asking me if I wanted points or a welcome bag, I was not greeted and thanked as a Spire member. I am still baffled at the lack of amenities Spire members receive at IHG properties. Apparently I was upgraded from two double beds to two queen beds. As someone who stays in hotels over 100 night a year, that is not...Prior to making the reservation on line, I called the hotel directly and spoke to a young man. I asked him if the hotel had a complimentary airport shuttle. He answered "Yes, the shuttle runs from 8am-8pm" I thanked him and proceed to make my reservation at the property. Fast forward to our arrival date, our plane arrives at 7:15pm and we called for a shuttle pick up. We were informed there is a 24 hour shuttle request notice and not shuttle is available. I told the woman I was only told the shuttle hours not that there was any reservation required. She told me they do not have shuttle driver working that night. We had no other options but to take a cab that cost over $50.00 to the property. The reason I made the reservation that the property is that I was told there was an airport shuttle that ran from 8am-8pm. I am disappointed in the misinformation I was given and the lack of concern or responsibly the front desk attendant had for guests.Other than asking me if I wanted points or a welcome bag, I was not greeted and thanked as a Spire member. I am still baffled at the lack of amenities Spire members receive at IHG properties. Apparently I was upgraded from two double beds to two queen beds. As someone who stays in hotels over 100 night a year, that is not an upgrade.Finally, breakfast was less than average. The breakfast attendant was not welcoming or friendly. Never saw her speak or smile at the guests. There were not many guests down at breakfast at the time. Eggs were empty and another guest had to inform the attendant. It is my understanding this would be part of the attendant responsibility to check when the food, especially the eggs need to be refilled. All guest waited for eggs.The issue I am most concerned about is the misinformation being given to guests regarding the airport shuttle. PLEASE be aware a reservation is required if you are needing a shuttle pick up. DO NOT depend on a pick up during the hours given, even if the hotel does not tell you about the reservation requirements.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 24, 2016</t>
+  </si>
+  <si>
+    <t>Prior to making the reservation on line, I called the hotel directly and spoke to a young man. I asked him if the hotel had a complimentary airport shuttle. He answered "Yes, the shuttle runs from 8am-8pm" I thanked him and proceed to make my reservation at the property. Fast forward to our arrival date, our plane arrives at 7:15pm and we called for a shuttle pick up. We were informed there is a 24 hour shuttle request notice and not shuttle is available. I told the woman I was only told the shuttle hours not that there was any reservation required. She told me they do not have shuttle driver working that night. We had no other options but to take a cab that cost over $50.00 to the property. The reason I made the reservation that the property is that I was told there was an airport shuttle that ran from 8am-8pm. I am disappointed in the misinformation I was given and the lack of concern or responsibly the front desk attendant had for guests.
+Other than asking me if I wanted points or a welcome bag, I was not greeted and thanked as a Spire member. I am still baffled at the lack of amenities Spire members receive at IHG properties. Apparently I was upgraded from two double beds to two queen beds. As someone who stays in hotels over 100 night a year, that is not...Prior to making the reservation on line, I called the hotel directly and spoke to a young man. I asked him if the hotel had a complimentary airport shuttle. He answered "Yes, the shuttle runs from 8am-8pm" I thanked him and proceed to make my reservation at the property. Fast forward to our arrival date, our plane arrives at 7:15pm and we called for a shuttle pick up. We were informed there is a 24 hour shuttle request notice and not shuttle is available. I told the woman I was only told the shuttle hours not that there was any reservation required. She told me they do not have shuttle driver working that night. We had no other options but to take a cab that cost over $50.00 to the property. The reason I made the reservation that the property is that I was told there was an airport shuttle that ran from 8am-8pm. I am disappointed in the misinformation I was given and the lack of concern or responsibly the front desk attendant had for guests.Other than asking me if I wanted points or a welcome bag, I was not greeted and thanked as a Spire member. I am still baffled at the lack of amenities Spire members receive at IHG properties. Apparently I was upgraded from two double beds to two queen beds. As someone who stays in hotels over 100 night a year, that is not an upgrade.Finally, breakfast was less than average. The breakfast attendant was not welcoming or friendly. Never saw her speak or smile at the guests. There were not many guests down at breakfast at the time. Eggs were empty and another guest had to inform the attendant. It is my understanding this would be part of the attendant responsibility to check when the food, especially the eggs need to be refilled. All guest waited for eggs.The issue I am most concerned about is the misinformation being given to guests regarding the airport shuttle. PLEASE be aware a reservation is required if you are needing a shuttle pick up. DO NOT depend on a pick up during the hours given, even if the hotel does not tell you about the reservation requirements.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r399311154-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>399311154</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>Lax tournament stay</t>
+  </si>
+  <si>
+    <t>Not the best hotel. Was on the tournament list. Limited pool area, ice machine not working, ac not good. 109 per night.. oh well. Recommend others in area if you can get there. No restaurants real close but it is on 225 so access is easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 16, 2016</t>
+  </si>
+  <si>
+    <t>Not the best hotel. Was on the tournament list. Limited pool area, ice machine not working, ac not good. 109 per night.. oh well. Recommend others in area if you can get there. No restaurants real close but it is on 225 so access is easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r398636118-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>398636118</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t>Pleasant Stay</t>
+  </si>
+  <si>
+    <t>We arrived just before 9PM and were greeted with a smiling host.  Unfortunately, our teens were disappointed because the pool closed at 9 and they were not able to enjoy the outdoor pool.  The hotel is conveniently located next to I-225.  Our rooms were clean, quiet and comfortable.  Breakfast was what we've come to expect from the Holiday Inn Express brand with juice, muffins, cinnamon rolls, fruit, cereal, coffee, etc.  Overall had a good experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r388779058-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>388779058</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>Poor management, poor customer service</t>
+  </si>
+  <si>
+    <t>The two star goes to the lack of pro-activeness of staff (other than Senite, she is awesome and looked after me very well when i stayed here after my flight was cancelled), the manner in which they speak and the resources available to them which speaks volume of the management. It actually should be ONE STAR. I gave TWO because of their staff member, Senite. I left an item behind and i called to see if they have found it. We were told by front staff that housekeeping don't have walkie talkies and he can't reach them, the housekeeping manager has the key to the basement and that's where lost and found is. When he does, he'll call us back. I asked what time frame and he said within an hour. Two and half hours later, we call back to follow up. he says he's been busy, and can't find housekeeping. We asked if he or someone else had gone looking for housekeeping manager and he said he can't as he's the only one there!!! So the wild goose chase involved him leaving his position and looking around 4 floors (which is not many given the size of this hotel is not that huge) and he made the promise given he knew he couldn't keep it. He said to call back the next morning to speak to manager. I called back this morning, spoke to a Melinda, she called housekeeping...The two star goes to the lack of pro-activeness of staff (other than Senite, she is awesome and looked after me very well when i stayed here after my flight was cancelled), the manner in which they speak and the resources available to them which speaks volume of the management. It actually should be ONE STAR. I gave TWO because of their staff member, Senite. I left an item behind and i called to see if they have found it. We were told by front staff that housekeeping don't have walkie talkies and he can't reach them, the housekeeping manager has the key to the basement and that's where lost and found is. When he does, he'll call us back. I asked what time frame and he said within an hour. Two and half hours later, we call back to follow up. he says he's been busy, and can't find housekeeping. We asked if he or someone else had gone looking for housekeeping manager and he said he can't as he's the only one there!!! So the wild goose chase involved him leaving his position and looking around 4 floors (which is not many given the size of this hotel is not that huge) and he made the promise given he knew he couldn't keep it. He said to call back the next morning to speak to manager. I called back this morning, spoke to a Melinda, she called housekeeping who magically answered and said they haven't found anything. We still wanted to speak to the manager. she said she'll put me through to his voicemail. The phone kept ringing out 3 times, there was no voicemail. As i left a message for him manually with Melinda and asked when he'd call me back she said oh he's not in today, he's already left! so he'll call you back tomorrow or when he can. So you are just telling me this now. I asked when he'll be in tomorrow and she repeated herself 3 times by saying 'in the morning'. I said what hours as i'm calling now and he's already gone. She said she can't give out that information. I said how can i call him if i don't know his hours. She said between 8 and 9am. I said so he works for 1 hour tomorrow? She said no i think he starts then....basically, she wasn't sure about what she is saying, clearly the manager has not trained them well enough to be pro-active and take initiative based on our experiences so far with 2 of their staff, yesterday and today. She asked for my name and i gave her my last name and she said so you don't have a name! i said here is my last name, room number (since she didn't bother checking it in the first place and i had to give it to her) and here is my phone number.  And there is lack of communication between the manager and these two. Which comes across as if they really don't care about your item or helping you out, by making promising and not keeping them, disrespecting you by not taking in your last name and number and when i said thank you good bye, she hung up. The rooms are clean, the bed is comfortable, the furniture is decent and modern. And Senite at reception was awesome and caring. The rest, including the management and culture of the management that you can feel in the rest of the staff, needs serious work.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cris R, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2016</t>
+  </si>
+  <si>
+    <t>The two star goes to the lack of pro-activeness of staff (other than Senite, she is awesome and looked after me very well when i stayed here after my flight was cancelled), the manner in which they speak and the resources available to them which speaks volume of the management. It actually should be ONE STAR. I gave TWO because of their staff member, Senite. I left an item behind and i called to see if they have found it. We were told by front staff that housekeeping don't have walkie talkies and he can't reach them, the housekeeping manager has the key to the basement and that's where lost and found is. When he does, he'll call us back. I asked what time frame and he said within an hour. Two and half hours later, we call back to follow up. he says he's been busy, and can't find housekeeping. We asked if he or someone else had gone looking for housekeeping manager and he said he can't as he's the only one there!!! So the wild goose chase involved him leaving his position and looking around 4 floors (which is not many given the size of this hotel is not that huge) and he made the promise given he knew he couldn't keep it. He said to call back the next morning to speak to manager. I called back this morning, spoke to a Melinda, she called housekeeping...The two star goes to the lack of pro-activeness of staff (other than Senite, she is awesome and looked after me very well when i stayed here after my flight was cancelled), the manner in which they speak and the resources available to them which speaks volume of the management. It actually should be ONE STAR. I gave TWO because of their staff member, Senite. I left an item behind and i called to see if they have found it. We were told by front staff that housekeeping don't have walkie talkies and he can't reach them, the housekeeping manager has the key to the basement and that's where lost and found is. When he does, he'll call us back. I asked what time frame and he said within an hour. Two and half hours later, we call back to follow up. he says he's been busy, and can't find housekeeping. We asked if he or someone else had gone looking for housekeeping manager and he said he can't as he's the only one there!!! So the wild goose chase involved him leaving his position and looking around 4 floors (which is not many given the size of this hotel is not that huge) and he made the promise given he knew he couldn't keep it. He said to call back the next morning to speak to manager. I called back this morning, spoke to a Melinda, she called housekeeping who magically answered and said they haven't found anything. We still wanted to speak to the manager. she said she'll put me through to his voicemail. The phone kept ringing out 3 times, there was no voicemail. As i left a message for him manually with Melinda and asked when he'd call me back she said oh he's not in today, he's already left! so he'll call you back tomorrow or when he can. So you are just telling me this now. I asked when he'll be in tomorrow and she repeated herself 3 times by saying 'in the morning'. I said what hours as i'm calling now and he's already gone. She said she can't give out that information. I said how can i call him if i don't know his hours. She said between 8 and 9am. I said so he works for 1 hour tomorrow? She said no i think he starts then....basically, she wasn't sure about what she is saying, clearly the manager has not trained them well enough to be pro-active and take initiative based on our experiences so far with 2 of their staff, yesterday and today. She asked for my name and i gave her my last name and she said so you don't have a name! i said here is my last name, room number (since she didn't bother checking it in the first place and i had to give it to her) and here is my phone number.  And there is lack of communication between the manager and these two. Which comes across as if they really don't care about your item or helping you out, by making promising and not keeping them, disrespecting you by not taking in your last name and number and when i said thank you good bye, she hung up. The rooms are clean, the bed is comfortable, the furniture is decent and modern. And Senite at reception was awesome and caring. The rest, including the management and culture of the management that you can feel in the rest of the staff, needs serious work.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r388587146-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>388587146</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Check-in took a little long. However, the attendant was working a fast as he could considering the circumstances. He was polite and very humorous. The room was clean and fresh. The beds were comfortable and had the option of two different pillows: soft and firm. The hotel was quiet at night, I had a good night sleep. The building is modern and clean.Free breakfast is provided and it's located right across a hospital.There are plenty of restaurants located near the hotel including Joe's Crab Shack one of my favorite!DownfallThe bathroom door lock didn't work and shampoo wasn't stocked. Overall we had a good experience and would go back again!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>Check-in took a little long. However, the attendant was working a fast as he could considering the circumstances. He was polite and very humorous. The room was clean and fresh. The beds were comfortable and had the option of two different pillows: soft and firm. The hotel was quiet at night, I had a good night sleep. The building is modern and clean.Free breakfast is provided and it's located right across a hospital.There are plenty of restaurants located near the hotel including Joe's Crab Shack one of my favorite!DownfallThe bathroom door lock didn't work and shampoo wasn't stocked. Overall we had a good experience and would go back again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r388321804-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>388321804</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Grabbed it up on the holiday weekend. Glad I did.</t>
+  </si>
+  <si>
+    <t>I was really discouraged reading reviews of affordable hotels in the Aurora area and I needed to make a decision - fast. Yes, it is near the freeway. I asked for a room a bit back and on the third floor. It's an older building, but they have done a great job updating it! Years ago I decided that, unless it is a special occasion, find a nice place, but don't break the bank. This fit the bill. It is in a "mixed use" sort of area, but Aurora seems to be like that. Go down the street that goes along the freeway and you will come to a nice center with a lot of good dining choices. The hotels in the Denver area run higher than some other areas I have been in on my trip. I paid more than I would have liked, but quickly had determined that the area demands a higher price. So, this was a good deal all things considered! The only thing the room did not have was a freezer section in the fridge. Well laid out queen bed plan. Very small kitchenette is very handy. Small cupboards. Some paper plates and cups tucked inside.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded July 5, 2016</t>
+  </si>
+  <si>
+    <t>I was really discouraged reading reviews of affordable hotels in the Aurora area and I needed to make a decision - fast. Yes, it is near the freeway. I asked for a room a bit back and on the third floor. It's an older building, but they have done a great job updating it! Years ago I decided that, unless it is a special occasion, find a nice place, but don't break the bank. This fit the bill. It is in a "mixed use" sort of area, but Aurora seems to be like that. Go down the street that goes along the freeway and you will come to a nice center with a lot of good dining choices. The hotels in the Denver area run higher than some other areas I have been in on my trip. I paid more than I would have liked, but quickly had determined that the area demands a higher price. So, this was a good deal all things considered! The only thing the room did not have was a freezer section in the fridge. Well laid out queen bed plan. Very small kitchenette is very handy. Small cupboards. Some paper plates and cups tucked inside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r380439066-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>380439066</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>One night stay, OK</t>
+  </si>
+  <si>
+    <t>To be fair, I was in late and out early.  Internet was fine.  Hotel was quiet and comfortable.  I wish I had more time to check out the hotel.  IT was what I needed when I needed it.  I'll try it again if I am ever back in the area.  I didn't get to use the facilities much or not at all.  But for the area, which is expensive, it saved me because everyone else was over 150 a night and would talk to me about lowering the rate.So it's high, but not as high as other hotels in the area.  For that, it gets 4 stars.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r378135897-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>378135897</t>
+  </si>
+  <si>
+    <t>05/30/2016</t>
+  </si>
+  <si>
+    <t>Everything you expect from Holiday-Inn and a little less.</t>
+  </si>
+  <si>
+    <t>I guess I am spoiled; the Holiday Inn's I stay at have always been close to a five star rating. When I checked this one out it was rated that way but turns out not to be that way.The beds were just plain out bad. The springs almost poked through the pillow top.If it wasn't for the noise from the air conditioner I bet the springs could have made music something like a xylophone. Since I was by myself I tried the other bed and it was just as bad. So nothing left to do but sleep on the pillows from one bed on to the other.The area was quit and safe, many parts of Aurora have crime on the increase. But ir was good here. The breakfast was very good and their was always cookies to take to the room after coming in late. The pool is outside and even for the end of May to cold for that.For the amount of money paid, I could have done better. But that'after the fact.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded June 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2016</t>
+  </si>
+  <si>
+    <t>I guess I am spoiled; the Holiday Inn's I stay at have always been close to a five star rating. When I checked this one out it was rated that way but turns out not to be that way.The beds were just plain out bad. The springs almost poked through the pillow top.If it wasn't for the noise from the air conditioner I bet the springs could have made music something like a xylophone. Since I was by myself I tried the other bed and it was just as bad. So nothing left to do but sleep on the pillows from one bed on to the other.The area was quit and safe, many parts of Aurora have crime on the increase. But ir was good here. The breakfast was very good and their was always cookies to take to the room after coming in late. The pool is outside and even for the end of May to cold for that.For the amount of money paid, I could have done better. But that'after the fact.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r371444937-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>371444937</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Single Night Stay</t>
+  </si>
+  <si>
+    <t>We love this brand, and this hotel was pretty on point with the standards. Clean and modern. It was my first time to the Denver area, but this hotel seemed pretty close to everything, but far away enough from the actual "big city"MoreShow less</t>
+  </si>
+  <si>
+    <t>Cris R, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded May 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2016</t>
+  </si>
+  <si>
+    <t>We love this brand, and this hotel was pretty on point with the standards. Clean and modern. It was my first time to the Denver area, but this hotel seemed pretty close to everything, but far away enough from the actual "big city"More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r352489189-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>352489189</t>
+  </si>
+  <si>
+    <t>03/02/2016</t>
+  </si>
+  <si>
+    <t>Disapponted</t>
+  </si>
+  <si>
+    <t>Because of our limited income as senior citizens, we were very disappointed and sad to the point of tears on my wife's part because of an error on our reservation days.  We checked in a day late according to the hotels records.  Although we did not stay at the Holiday Inn Express on the date shown and came the next night we were refused a refund for the previous night.  We called your 1-800 number and your representative tried to get the refund but because of your res. policy we were refused.  It was quite a blow to our finances, but we had no choice but to pay for another night's  stay.  We have always spend our trips to Aurora at your Inn and  enjoyed it's amenities, but still so sad.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded March 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2016</t>
+  </si>
+  <si>
+    <t>Because of our limited income as senior citizens, we were very disappointed and sad to the point of tears on my wife's part because of an error on our reservation days.  We checked in a day late according to the hotels records.  Although we did not stay at the Holiday Inn Express on the date shown and came the next night we were refused a refund for the previous night.  We called your 1-800 number and your representative tried to get the refund but because of your res. policy we were refused.  It was quite a blow to our finances, but we had no choice but to pay for another night's  stay.  We have always spend our trips to Aurora at your Inn and  enjoyed it's amenities, but still so sad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r352331868-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>352331868</t>
+  </si>
+  <si>
+    <t>Nice overnight stay</t>
+  </si>
+  <si>
+    <t>Stayed just one night, arriving after 10pm and leaving before 7am. Check-in was friendly and quick. They had some water with lemons in the lobby, which was nice. I used the lobby computers to check-in for a flight and print boarding passes.The room they gave me had a connecting door, which I hate and specifically ask in the reservation not to get one. Went back down and they sorted it out without a problem. The room was nice, spacious and very clean. Not the most modern in design and style, but well maintained. I left earlier than breakfast time on a Sunday, so I only went down to get some coffee, which was freshly-brewed and hot. Check-out took seconds.All in all an uneventful and nice overnight stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed just one night, arriving after 10pm and leaving before 7am. Check-in was friendly and quick. They had some water with lemons in the lobby, which was nice. I used the lobby computers to check-in for a flight and print boarding passes.The room they gave me had a connecting door, which I hate and specifically ask in the reservation not to get one. Went back down and they sorted it out without a problem. The room was nice, spacious and very clean. Not the most modern in design and style, but well maintained. I left earlier than breakfast time on a Sunday, so I only went down to get some coffee, which was freshly-brewed and hot. Check-out took seconds.All in all an uneventful and nice overnight stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r349557625-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>349557625</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Convenient to highway</t>
+  </si>
+  <si>
+    <t>This hotel had friendly staff and was clean and neat. I was surprised that the room had a very small kitchenette area (sink, fridge, one-cup keurig). Breakfast in the morning had the typical variety of offerings. There can be a lot of road noise in the hotel rooms because of the hotel's location right along I-225, but we were not bothered by it. Looks like the hotel is well-situated to be at a light rail stop when the Aurora line opens later this year.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r331009753-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>331009753</t>
+  </si>
+  <si>
+    <t>12/06/2015</t>
+  </si>
+  <si>
+    <t>Nice place for a one night stay</t>
+  </si>
+  <si>
+    <t>My husband had a doctors apt at University of Colorado and this was the best value hotel that we could find closest to the campus.  Nice fitness center, good breakfast, all the things you expect from a Holiday Inn property.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Cris R, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded December 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2015</t>
+  </si>
+  <si>
+    <t>My husband had a doctors apt at University of Colorado and this was the best value hotel that we could find closest to the campus.  Nice fitness center, good breakfast, all the things you expect from a Holiday Inn property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r311453353-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>311453353</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; Convenient</t>
+  </si>
+  <si>
+    <t>The hotel looks like it has been recently remodeled. Very nice and modern looking. Room was nicely furnished, bed comfortable, I always take my own pillow so cannot comment on the pillows altho they had a choice of soft or firmer pillows. Hotel sits facing an Interstate highway near hospitals so traffic was was noisy. As I am a light sleeper, I always wear ear plugs when travelling and the earplugs "sound proofed" my environment allowing me to sleep sleep. No restaurants close enough to walk to, but near by. Breakfast was great, their cinnamon rolls are so delicious, they also had cheese omelets, bagels, toast, pancakes, bacon and turkey sausage patties, pancakes, hot &amp; cold cereals.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded September 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2015</t>
+  </si>
+  <si>
+    <t>The hotel looks like it has been recently remodeled. Very nice and modern looking. Room was nicely furnished, bed comfortable, I always take my own pillow so cannot comment on the pillows altho they had a choice of soft or firmer pillows. Hotel sits facing an Interstate highway near hospitals so traffic was was noisy. As I am a light sleeper, I always wear ear plugs when travelling and the earplugs "sound proofed" my environment allowing me to sleep sleep. No restaurants close enough to walk to, but near by. Breakfast was great, their cinnamon rolls are so delicious, they also had cheese omelets, bagels, toast, pancakes, bacon and turkey sausage patties, pancakes, hot &amp; cold cereals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r304495935-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>304495935</t>
+  </si>
+  <si>
+    <t>08/28/2015</t>
+  </si>
+  <si>
+    <t>Disappointing...</t>
+  </si>
+  <si>
+    <t>The staff seemed disinterested, the room no better than average and no coffee in the pot during breakfast. It appears it is being remodeled. Police in the lobby at 9:30 PM for unknown reasons. I will not lay my head down here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded August 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2015</t>
+  </si>
+  <si>
+    <t>The staff seemed disinterested, the room no better than average and no coffee in the pot during breakfast. It appears it is being remodeled. Police in the lobby at 9:30 PM for unknown reasons. I will not lay my head down here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r297873197-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>297873197</t>
+  </si>
+  <si>
+    <t>08/11/2015</t>
+  </si>
+  <si>
+    <t>Dependable Holiday Inn</t>
+  </si>
+  <si>
+    <t>I've been there several times in the past 6 years. It is conveniently located close to the Interstate, several restaurant and a big mall is close. Rooms are comfortable and well-kept. The only downside is that it might be a bit noisy if your room is closer to the Interstate.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Cris R, Front Office Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded August 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 12, 2015</t>
+  </si>
+  <si>
+    <t>I've been there several times in the past 6 years. It is conveniently located close to the Interstate, several restaurant and a big mall is close. Rooms are comfortable and well-kept. The only downside is that it might be a bit noisy if your room is closer to the Interstate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r293139891-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>293139891</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>Close to hospitals but not great</t>
+  </si>
+  <si>
+    <t>We stayed here one night for appointments I have at the Neurosurgery Clinic of Colorado. We have since switched hotels. Pros: Close to Medical facilities, quiet. Staff was fairly friendly. Rooms seemed clean.Cons: Carpets are dirty throughout and in bad need of cleaning. Beds were ok but squeaked like crazy just from normal movement. Our toilet seat was about to fall off, and the tub didn't drain probably.  Breakfast was ok but not great. The internet was VERY VERY slow. I think this could be a great hotel with a little effort but right now it's mediocre.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here one night for appointments I have at the Neurosurgery Clinic of Colorado. We have since switched hotels. Pros: Close to Medical facilities, quiet. Staff was fairly friendly. Rooms seemed clean.Cons: Carpets are dirty throughout and in bad need of cleaning. Beds were ok but squeaked like crazy just from normal movement. Our toilet seat was about to fall off, and the tub didn't drain probably.  Breakfast was ok but not great. The internet was VERY VERY slow. I think this could be a great hotel with a little effort but right now it's mediocre.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r292061374-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>292061374</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Wow!!</t>
+  </si>
+  <si>
+    <t>This hotel is a gorgeous property with well trained customer service specialists. Airport shuttle was offered for us, and cinnamon rolls were available during breakfast. Rooms smelled newly remodeled as they had claimed. Very impressed!MoreShow less</t>
+  </si>
+  <si>
+    <t>Cris R, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded July 28, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is a gorgeous property with well trained customer service specialists. Airport shuttle was offered for us, and cinnamon rolls were available during breakfast. Rooms smelled newly remodeled as they had claimed. Very impressed!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r287316523-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>287316523</t>
+  </si>
+  <si>
+    <t>07/09/2015</t>
+  </si>
+  <si>
+    <t>Convenient for airport - friendly staff</t>
+  </si>
+  <si>
+    <t>Needed to move from Boulder closer to airport for 1 night. This was great savings compared to Tower Rd hotels at airport. Room was clean. Staff very very friendly. Room was very hot when we got to it though and never cooled down despite running air on high cool.  It was a cool night (low 60's) so finally just cracked upstairs window. Left hotel at 5:55 am on a Monday and was on shuttle bus after rental car drop off before 6:30 am. MoreShow less</t>
+  </si>
+  <si>
+    <t>Cris R, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2015</t>
+  </si>
+  <si>
+    <t>Needed to move from Boulder closer to airport for 1 night. This was great savings compared to Tower Rd hotels at airport. Room was clean. Staff very very friendly. Room was very hot when we got to it though and never cooled down despite running air on high cool.  It was a cool night (low 60's) so finally just cracked upstairs window. Left hotel at 5:55 am on a Monday and was on shuttle bus after rental car drop off before 6:30 am. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r283478813-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>283478813</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>Good HIE</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express is our go-to hotel when we are traveling. This one did not disappoint. Room was good sized, and had everything we needed.The only reason for the less than perfect rating is that they did not have our rate correct when we checked in. They were going to overcharge us. Fortunately I had a printed confirmation to show them. Not sure why, but this happened at the next HIE in a different city on the next day. Check your rate carefully.Otherwise, perfectly fine hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express is our go-to hotel when we are traveling. This one did not disappoint. Room was good sized, and had everything we needed.The only reason for the less than perfect rating is that they did not have our rate correct when we checked in. They were going to overcharge us. Fortunately I had a printed confirmation to show them. Not sure why, but this happened at the next HIE in a different city on the next day. Check your rate carefully.Otherwise, perfectly fine hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r282677679-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>282677679</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>What a Joy!</t>
+  </si>
+  <si>
+    <t>I am currently using the business center at this Holiday Inn because I happened to lose my luggage on a flight so I don't have my laptop with me. After a disappointing day at the airport where I found out my luggage had made it home without me I called for a shuttle from the Holiday Inn. The shuttle was there in no time and the driver was very kind to me and tried to make small talk with me which was greatly appreciated! I walked into a very modern looking lobby that a very good scent to it. The desk staff was very helpful and got me toothbrushes and toothpaste and helped me out with whatever I needed. After a long day I got to my room and laid in the bed which must've been new because it didn't sink at all. I was very comfortable all throughout my stay and would like to thank everyone at the Holiday Inn for making my stay a very pleasurable one!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>I am currently using the business center at this Holiday Inn because I happened to lose my luggage on a flight so I don't have my laptop with me. After a disappointing day at the airport where I found out my luggage had made it home without me I called for a shuttle from the Holiday Inn. The shuttle was there in no time and the driver was very kind to me and tried to make small talk with me which was greatly appreciated! I walked into a very modern looking lobby that a very good scent to it. The desk staff was very helpful and got me toothbrushes and toothpaste and helped me out with whatever I needed. After a long day I got to my room and laid in the bed which must've been new because it didn't sink at all. I was very comfortable all throughout my stay and would like to thank everyone at the Holiday Inn for making my stay a very pleasurable one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r280999152-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>280999152</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Holiday Inn express, Denver Aurora</t>
+  </si>
+  <si>
+    <t>Another nice Holiday Inn Express with friendly staff. Located about 15 miles from downtown Denver and for instance the Capitol building, it is a short drive from the hotel. But, avoid rush hour as it takes much more time then... The hotel has free Wi-fi, breakfast and a fitness center/swimming pool. good for families as well as business people. The location is good if you plan on going south the next morning as the freeway is very close to the hotel. There are also some restaurants and shops nearby and therefore no need for a lot of driving for the basic necessities.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r272482403-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>272482403</t>
+  </si>
+  <si>
+    <t>05/17/2015</t>
+  </si>
+  <si>
+    <t>Sincerely upset</t>
+  </si>
+  <si>
+    <t>I was waiting on expedia reservations to fix my stay and I had already spoke with a very helpful lady at the front desk (curly hair). when her relief came in she let me know that she wouldn't leave until I was taken care of. the rudest representative ive ever met comes to the desk and starts saying that hes done with it being so busy and what is he gonna do if he gets busier since the manager never answers that's why he left the other hotel and went on and on . the lady continued to get her paperwork together and told him that she would check on him and answer if he needed her. even she looked so displeased about how he was acting and went to the back room behind the desk. I observed how he was speaking to people very rude and I knew I was next. he then asked her what I was waiting on and she let him know my situation. and he rudely stated " well they can refund you and we can use your card until you get it figured out " i said i couldn't refund it and he cut me off before i could say it was the expedia bundle plane and hotel no refund. he said bluntely " well theres nothing we can do then we cant help you" and the other front desk agent pulled him aside...I was waiting on expedia reservations to fix my stay and I had already spoke with a very helpful lady at the front desk (curly hair). when her relief came in she let me know that she wouldn't leave until I was taken care of. the rudest representative ive ever met comes to the desk and starts saying that hes done with it being so busy and what is he gonna do if he gets busier since the manager never answers that's why he left the other hotel and went on and on . the lady continued to get her paperwork together and told him that she would check on him and answer if he needed her. even she looked so displeased about how he was acting and went to the back room behind the desk. I observed how he was speaking to people very rude and I knew I was next. he then asked her what I was waiting on and she let him know my situation. and he rudely stated " well they can refund you and we can use your card until you get it figured out " i said i couldn't refund it and he cut me off before i could say it was the expedia bundle plane and hotel no refund. he said bluntely " well theres nothing we can do then we cant help you" and the other front desk agent pulled him aside and let him know that it was a bundle and that the fax should be coming through from expedia that she has it handled. i was baffled that he spoke to me and every one else that way only 20 minutes into his shift. id hate to see him at the end of his shift. he must be miserable and clearly doesn't belong in customer service. he was skinny had a hoody on. big orange beard and long hair pony tail . -a huge disappointment to holiday inn. ive stayed here before and the staff was great. i will stay here again but never if i fly in late . the managers great and so is the curly hair lady and the breakfast attendant.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded May 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2015</t>
+  </si>
+  <si>
+    <t>I was waiting on expedia reservations to fix my stay and I had already spoke with a very helpful lady at the front desk (curly hair). when her relief came in she let me know that she wouldn't leave until I was taken care of. the rudest representative ive ever met comes to the desk and starts saying that hes done with it being so busy and what is he gonna do if he gets busier since the manager never answers that's why he left the other hotel and went on and on . the lady continued to get her paperwork together and told him that she would check on him and answer if he needed her. even she looked so displeased about how he was acting and went to the back room behind the desk. I observed how he was speaking to people very rude and I knew I was next. he then asked her what I was waiting on and she let him know my situation. and he rudely stated " well they can refund you and we can use your card until you get it figured out " i said i couldn't refund it and he cut me off before i could say it was the expedia bundle plane and hotel no refund. he said bluntely " well theres nothing we can do then we cant help you" and the other front desk agent pulled him aside...I was waiting on expedia reservations to fix my stay and I had already spoke with a very helpful lady at the front desk (curly hair). when her relief came in she let me know that she wouldn't leave until I was taken care of. the rudest representative ive ever met comes to the desk and starts saying that hes done with it being so busy and what is he gonna do if he gets busier since the manager never answers that's why he left the other hotel and went on and on . the lady continued to get her paperwork together and told him that she would check on him and answer if he needed her. even she looked so displeased about how he was acting and went to the back room behind the desk. I observed how he was speaking to people very rude and I knew I was next. he then asked her what I was waiting on and she let him know my situation. and he rudely stated " well they can refund you and we can use your card until you get it figured out " i said i couldn't refund it and he cut me off before i could say it was the expedia bundle plane and hotel no refund. he said bluntely " well theres nothing we can do then we cant help you" and the other front desk agent pulled him aside and let him know that it was a bundle and that the fax should be coming through from expedia that she has it handled. i was baffled that he spoke to me and every one else that way only 20 minutes into his shift. id hate to see him at the end of his shift. he must be miserable and clearly doesn't belong in customer service. he was skinny had a hoody on. big orange beard and long hair pony tail . -a huge disappointment to holiday inn. ive stayed here before and the staff was great. i will stay here again but never if i fly in late . the managers great and so is the curly hair lady and the breakfast attendant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r268156412-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>268156412</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>AMAZING STAY!!!</t>
+  </si>
+  <si>
+    <t>In Denver for business, this hotel has everything a business traveler could need! The front desk staff were inviting and helpful throughout the stay. Breakfast was delicious every morning, and my room was incredibly clean and neat! I was near I70 and I25, making everything very accessible which was a major plus for me! Housekeeping even jogged down the hall to help when she saw I was toting 3 bags and trying to open my door (getting them into my room was proving to be a challenge). Housekeeping staff even smiled every time I walked by! I usually say "I'll stay here again", but this time I can say "I can't wait to stay here again!" Great job!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>In Denver for business, this hotel has everything a business traveler could need! The front desk staff were inviting and helpful throughout the stay. Breakfast was delicious every morning, and my room was incredibly clean and neat! I was near I70 and I25, making everything very accessible which was a major plus for me! Housekeeping even jogged down the hall to help when she saw I was toting 3 bags and trying to open my door (getting them into my room was proving to be a challenge). Housekeeping staff even smiled every time I walked by! I usually say "I'll stay here again", but this time I can say "I can't wait to stay here again!" Great job!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r260640258-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>260640258</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houseofluck </t>
+  </si>
+  <si>
+    <t>Stayed here for a long weekend. Rooms were very clean and nice. It was nice and quiet and had a pretty decent workout room. Continental breakfast was pretty good lots to choose from. Everyone was very friendly. Beds could've been a little more comfortable but not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Cris R, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded March 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here for a long weekend. Rooms were very clean and nice. It was nice and quiet and had a pretty decent workout room. Continental breakfast was pretty good lots to choose from. Everyone was very friendly. Beds could've been a little more comfortable but not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r257212910-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>257212910</t>
+  </si>
+  <si>
+    <t>03/01/2015</t>
+  </si>
+  <si>
+    <t>Poorly attention from the front desk,  the worst I have ever seen.</t>
+  </si>
+  <si>
+    <t>The beard guy front desk has the worst attention ever,  he is so rood and unhelpful.  Treat you awful. I couldn't believe how rude he was.Cold rooms, not very clean. Please don't stay here,  people like this guy (young,  long hair, long beard) don't deserve to be in the service industry.  He is probably miserable but it's not my fault.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded March 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2015</t>
+  </si>
+  <si>
+    <t>The beard guy front desk has the worst attention ever,  he is so rood and unhelpful.  Treat you awful. I couldn't believe how rude he was.Cold rooms, not very clean. Please don't stay here,  people like this guy (young,  long hair, long beard) don't deserve to be in the service industry.  He is probably miserable but it's not my fault.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r257016682-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>257016682</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>A breath of fresh air</t>
+  </si>
+  <si>
+    <t>We recently stayed here on a few separate occasions when we were in denver for dr app at university hospital. The staff were all very nice and helpful. The hotel was very nice and conveniently located off I70 and easy to get to the hospital. We will definitely book this hotel every time we are traveling to denver wither it's for dr app. or just for vacation. MoreShow less</t>
+  </si>
+  <si>
+    <t>We recently stayed here on a few separate occasions when we were in denver for dr app at university hospital. The staff were all very nice and helpful. The hotel was very nice and conveniently located off I70 and easy to get to the hospital. We will definitely book this hotel every time we are traveling to denver wither it's for dr app. or just for vacation. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r251020457-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>251020457</t>
+  </si>
+  <si>
+    <t>01/25/2015</t>
+  </si>
+  <si>
+    <t>Noise is the worst part.</t>
+  </si>
+  <si>
+    <t>Stayed for four nights in this hotel and had a hard time sleeping with the road noise. This is an older property with a recent remodel, but they still need to work on the noise from the adjacent freeway. New air conditioning (I Suggest using mini split air con and triple pane windows like the Holiday Inn in Lake forest CA) That property is right next to a freeway and you cant hear a thing!  The staff was top notch the elevator stopped working one morning and my door key was inoperable halfway thru my stay. I probably wont be back.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Cris R, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for four nights in this hotel and had a hard time sleeping with the road noise. This is an older property with a recent remodel, but they still need to work on the noise from the adjacent freeway. New air conditioning (I Suggest using mini split air con and triple pane windows like the Holiday Inn in Lake forest CA) That property is right next to a freeway and you cant hear a thing!  The staff was top notch the elevator stopped working one morning and my door key was inoperable halfway thru my stay. I probably wont be back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r244576511-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>244576511</t>
+  </si>
+  <si>
+    <t>12/15/2014</t>
+  </si>
+  <si>
+    <t>Great hotel for the money</t>
+  </si>
+  <si>
+    <t>Spent five days at this hotel for business.  The rooms were extremely clean, staff was very friendly, the AM breakfast was great.  Plan on staying there again on my next visit.  The location was very good to major road ways with easy access.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Cris R, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded December 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 17, 2014</t>
+  </si>
+  <si>
+    <t>Spent five days at this hotel for business.  The rooms were extremely clean, staff was very friendly, the AM breakfast was great.  Plan on staying there again on my next visit.  The location was very good to major road ways with easy access.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r241730927-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>241730927</t>
+  </si>
+  <si>
+    <t>11/27/2014</t>
+  </si>
+  <si>
+    <t>Very Kind Staff!!!!</t>
+  </si>
+  <si>
+    <t>I had to have a heart procedure at the Aurora Medical Center;  I chose this Holiday Inn because of its excellent location, price, and reviews. The best aspect of this Hotel for me was the very kind and caring staff.  The front deskmanager, Brandi, as well as the GM, Chris, could not have been nicer.  For example, the shuttleordinarily does not start running until 0800h.  But since I had to check in at the hospital at 0730hChris made a special effort to take me over earlier and he came to pick me up as well that evening.The breakfast was superb;  the room was spotless; the parking was good; the internet was quick;  and the price was great, but I shall always remember with gratitude the very kind staff who made an extra effort to help me during a very difficult and stressful time..MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Cris R, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded November 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2014</t>
+  </si>
+  <si>
+    <t>I had to have a heart procedure at the Aurora Medical Center;  I chose this Holiday Inn because of its excellent location, price, and reviews. The best aspect of this Hotel for me was the very kind and caring staff.  The front deskmanager, Brandi, as well as the GM, Chris, could not have been nicer.  For example, the shuttleordinarily does not start running until 0800h.  But since I had to check in at the hospital at 0730hChris made a special effort to take me over earlier and he came to pick me up as well that evening.The breakfast was superb;  the room was spotless; the parking was good; the internet was quick;  and the price was great, but I shall always remember with gratitude the very kind staff who made an extra effort to help me during a very difficult and stressful time..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r238801102-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>238801102</t>
+  </si>
+  <si>
+    <t>11/08/2014</t>
+  </si>
+  <si>
+    <t>Looks nice from the outside</t>
+  </si>
+  <si>
+    <t>This hotel looks like they updated the exterior to look like a newer Holiday Inn express.  I stayed here for 5 nights in business and had to come back to the front desk every 2 days because key became deactivated. On Tuesday, it was a voting place for the election so there were a line of people down the hall and into the lobby which if I had luggage it would have been very challenging to get through. One morning there were no eggs or coffee out for breakfast.  The positives about the property is the room was very clean.  Would not stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded November 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2014</t>
+  </si>
+  <si>
+    <t>This hotel looks like they updated the exterior to look like a newer Holiday Inn express.  I stayed here for 5 nights in business and had to come back to the front desk every 2 days because key became deactivated. On Tuesday, it was a voting place for the election so there were a line of people down the hall and into the lobby which if I had luggage it would have been very challenging to get through. One morning there were no eggs or coffee out for breakfast.  The positives about the property is the room was very clean.  Would not stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r235962822-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>235962822</t>
+  </si>
+  <si>
+    <t>10/23/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looks can be deceiving </t>
+  </si>
+  <si>
+    <t>It looks very nice both inside and out but without function, pretty doesn't mean diddly squat. First, it is not very handicapped accessible. There is no curb cut in front of the doors, it's another 30 ft to a small curbless ramp. Not that far but if you walk with a cane every step is difficult, especially after a long day on the road. Second, there were no luggage carts in the front, you have to walk half way down the length of the building to get one and then back to load and back down to your room. Since there is no place to indicate handicapped room needed on the website, you get what you get. We got the room furthest from the front. Once inside the room it looked lovely but.....the fridge didn't work, the only blanket was thin, no fan in the bathroom and the coffee setup did not include cups. This is not a cheap hotel so I expect better. As a matter of fact last night we stayed in a cheap hotel in small town in Kansas that was much better than this hotel. We won't be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded November 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 8, 2014</t>
+  </si>
+  <si>
+    <t>It looks very nice both inside and out but without function, pretty doesn't mean diddly squat. First, it is not very handicapped accessible. There is no curb cut in front of the doors, it's another 30 ft to a small curbless ramp. Not that far but if you walk with a cane every step is difficult, especially after a long day on the road. Second, there were no luggage carts in the front, you have to walk half way down the length of the building to get one and then back to load and back down to your room. Since there is no place to indicate handicapped room needed on the website, you get what you get. We got the room furthest from the front. Once inside the room it looked lovely but.....the fridge didn't work, the only blanket was thin, no fan in the bathroom and the coffee setup did not include cups. This is not a cheap hotel so I expect better. As a matter of fact last night we stayed in a cheap hotel in small town in Kansas that was much better than this hotel. We won't be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r234905791-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>234905791</t>
+  </si>
+  <si>
+    <t>10/17/2014</t>
+  </si>
+  <si>
+    <t>This one gives Holiday Inn a bad name</t>
+  </si>
+  <si>
+    <t>After 3 days of our 5 day stay in a prepaid room we discovered the hotel, without explanation was charging our card The best the manager could  offer was the refund. Fine No reason or explanation as to why they felt like helping themselves to our trip budget. Rooms are clean. Staff other than the inept management were friendly and helpful.   Also, lotsa people not paying attention to the no smoking signs every where. Stench got so bad they had to air freshen the whole floor. Leaving it smell like an old peach car refresher. Room keys didn't work. Nor did the door lock. Door didn't fit in jam and required slamming to lock it.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded November 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2014</t>
+  </si>
+  <si>
+    <t>After 3 days of our 5 day stay in a prepaid room we discovered the hotel, without explanation was charging our card The best the manager could  offer was the refund. Fine No reason or explanation as to why they felt like helping themselves to our trip budget. Rooms are clean. Staff other than the inept management were friendly and helpful.   Also, lotsa people not paying attention to the no smoking signs every where. Stench got so bad they had to air freshen the whole floor. Leaving it smell like an old peach car refresher. Room keys didn't work. Nor did the door lock. Door didn't fit in jam and required slamming to lock it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r223864811-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>223864811</t>
+  </si>
+  <si>
+    <t>08/23/2014</t>
+  </si>
+  <si>
+    <t>This place has only one thing going for it and that is</t>
+  </si>
+  <si>
+    <t>the hotel shuttle to the airport. Otherwise, it is pretty plain and very basic. If Ok is your benchmark then maybe. But when I checked in the front desk staff had no clue as to what local resturaunts there where and when I mentioned names, they did not know and I am an out of state traveler. They just shrugged their shoulders and said, "Sorry." That's not the kind of service you expect from a business hotel. Breakfast was OK. Room was Ok but dark. I would suggest there have to be better alternative where the front desk can actually answer some basic questions about the area. Pretty disappointing in the end. Hotel shuttle driver is great.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>the hotel shuttle to the airport. Otherwise, it is pretty plain and very basic. If Ok is your benchmark then maybe. But when I checked in the front desk staff had no clue as to what local resturaunts there where and when I mentioned names, they did not know and I am an out of state traveler. They just shrugged their shoulders and said, "Sorry." That's not the kind of service you expect from a business hotel. Breakfast was OK. Room was Ok but dark. I would suggest there have to be better alternative where the front desk can actually answer some basic questions about the area. Pretty disappointing in the end. Hotel shuttle driver is great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r221338120-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>221338120</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Perfect for my recovery from day surgery</t>
+  </si>
+  <si>
+    <t>This hospital is close to the University of Colorado Hospital Anschutz Campus where they do lots of day surgery.  I live 60 miles west of Denver and had surgery there and needed to stay down in Denver for the night somewhere in case of uncontrolled bleeding.  Holiday Inn Express was a very comfortable, reasonably priced place to recover!  The staff was very friendly and helpful, the snack machine was well stocked with cracker like things for nausea, beds were super comfortable, and breakfast is a hot meal in the morning.  The ice machine was right outside the room which was very handy for the ice bag I had to use.  I couldn't have found a better place.  Recovery was successful and I could go home the next day.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jackie L, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded October 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 7, 2014</t>
+  </si>
+  <si>
+    <t>This hospital is close to the University of Colorado Hospital Anschutz Campus where they do lots of day surgery.  I live 60 miles west of Denver and had surgery there and needed to stay down in Denver for the night somewhere in case of uncontrolled bleeding.  Holiday Inn Express was a very comfortable, reasonably priced place to recover!  The staff was very friendly and helpful, the snack machine was well stocked with cracker like things for nausea, beds were super comfortable, and breakfast is a hot meal in the morning.  The ice machine was right outside the room which was very handy for the ice bag I had to use.  I couldn't have found a better place.  Recovery was successful and I could go home the next day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r219583535-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>219583535</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>My Family vacation</t>
+  </si>
+  <si>
+    <t>I took our family to Denver for vacation and we stayed at the Holiday Inn express in Aurora CO. When we arrived the service was exceptional, the staff was friendly and courtious. We were invited to a wine tasting they have in the lobby on Wed evenings, and the breakfast was excellent. We had a choice of several hot and cold items and it went until 9:30 am so it was very convienent. I would highly recomend this hotel to any one whether it was family vacation or business travel. Thank you for a great stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I took our family to Denver for vacation and we stayed at the Holiday Inn express in Aurora CO. When we arrived the service was exceptional, the staff was friendly and courtious. We were invited to a wine tasting they have in the lobby on Wed evenings, and the breakfast was excellent. We had a choice of several hot and cold items and it went until 9:30 am so it was very convienent. I would highly recomend this hotel to any one whether it was family vacation or business travel. Thank you for a great stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r198021038-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>198021038</t>
+  </si>
+  <si>
+    <t>03/19/2014</t>
+  </si>
+  <si>
+    <t>Pleasant stay overall</t>
+  </si>
+  <si>
+    <t>Nothing overly negative to report on this property.  Room 428, facing south.Breakfast was edible, parking was plentiful, elevators worked, wifi zoomed, heat/ac was working within normal operational parameters. Outdoor pool was closed for the season.Was centrally located to anything and everything a person could want, as long as they wanted to be located near malls, mini-malls, shopping centers, gas stations, busy highways, congested streets and crowded intersections.With all that said, the hotel was quiet and we slept very well.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r197951905-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>197951905</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I stayed at the hotel with a big group (around 50 people). The staff did a good job with the group check in, because they were prepared and had all the keys ready by name. Further the hotel was clean and decent. There was a nice breakfast and coffee in the lobby.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r191048878-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>191048878</t>
+  </si>
+  <si>
+    <t>01/16/2014</t>
+  </si>
+  <si>
+    <t>What a change</t>
+  </si>
+  <si>
+    <t>I stayed at this property last year around christmas to visit some family. I enjoyed my stay then, but I must say I was shocked when I came back this year and seen the renovations they had done. The entire lobby area looks like new, the rooms have gotten a total facelift, and the staff even seemed friendlier and more confident in the "product" they were selling. I'm not sure what "Rick S" is referring to, but I'm pretty organized and my receipt from my last trip, and from this recent stay are pretty similar, there's about a $10.00 difference in my rate, which in my opinion the experience was well worth it! I think they are doing a great job over all! :)MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Lori N, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded March 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2014</t>
+  </si>
+  <si>
+    <t>I stayed at this property last year around christmas to visit some family. I enjoyed my stay then, but I must say I was shocked when I came back this year and seen the renovations they had done. The entire lobby area looks like new, the rooms have gotten a total facelift, and the staff even seemed friendlier and more confident in the "product" they were selling. I'm not sure what "Rick S" is referring to, but I'm pretty organized and my receipt from my last trip, and from this recent stay are pretty similar, there's about a $10.00 difference in my rate, which in my opinion the experience was well worth it! I think they are doing a great job over all! :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r184740088-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>184740088</t>
+  </si>
+  <si>
+    <t>11/14/2013</t>
+  </si>
+  <si>
+    <t>Way to beat the odds!!!</t>
+  </si>
+  <si>
+    <t>Hotel was under renovations. Thought we were going to have noise and all the craziness with all of the construction going on, but, the General Manager, Jackie, and her staff really helped make it easy. Can't wait to come back and see all of the finishing touches. Great location and friendly helpful staff. The gal during the day, Brandy, and the guy at night, Josh, were very helpful. Good people to have on their staff. Will continue to stay at this Holiday Inn Express in the future.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r181631865-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>181631865</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>Efficient, friendly, carpets in hallway so wild I had to shut my eyes!</t>
+  </si>
+  <si>
+    <t>Other than the carpet, the room was thoughtfully laid out with extra table space for computers and books. I did need to get a hard wire to get my computer going, but the front desk had a few to spare to lend me. They also had a password, very nice, as many hotels do not which makes internet access much slower from those outside the hotel who take advantage.The front desk clerks were friendly and informative and seemed to understand coming off the dusty trail and in need of sustenance. The breakfast the next day was fresh and the tables clean.While we did not need a meeting room, the first floor sported a large area and many smaller rooms. Not bad for children either, I believe there was a play area?MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Other than the carpet, the room was thoughtfully laid out with extra table space for computers and books. I did need to get a hard wire to get my computer going, but the front desk had a few to spare to lend me. They also had a password, very nice, as many hotels do not which makes internet access much slower from those outside the hotel who take advantage.The front desk clerks were friendly and informative and seemed to understand coming off the dusty trail and in need of sustenance. The breakfast the next day was fresh and the tables clean.While we did not need a meeting room, the first floor sported a large area and many smaller rooms. Not bad for children either, I believe there was a play area?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r178074783-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>178074783</t>
+  </si>
+  <si>
+    <t>09/21/2013</t>
+  </si>
+  <si>
+    <t>Good location, quaet with full gym access across the street!</t>
+  </si>
+  <si>
+    <t>Few seconds from freeway yet quaet, this hotel offers full access to Bally's fitness center.There are clusters of restaurant here and there.It is typical HI and you get what you pay for as far as room and breakfast.I like it because it was continent and relatively clean....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r166161914-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>166161914</t>
+  </si>
+  <si>
+    <t>07/03/2013</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Old, dirty, worn out.  But the staff was nice.  They made cookies especially for me.  Good wifi connection.  East access to freeway.  It is a bit of a drive for gas and food.  Good price.  Bedding was good.  I did not try thy breakfast.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2013</t>
+  </si>
+  <si>
+    <t>Old, dirty, worn out.  But the staff was nice.  They made cookies especially for me.  Good wifi connection.  East access to freeway.  It is a bit of a drive for gas and food.  Good price.  Bedding was good.  I did not try thy breakfast.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r161551390-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>161551390</t>
+  </si>
+  <si>
+    <t>05/22/2013</t>
+  </si>
+  <si>
+    <t>Great Management</t>
+  </si>
+  <si>
+    <t>The hotel is clean and decent. There's good breakfast and coffee in the lobby.  What really made the hotel experience was the staff- especially the manager Meghan.  She and the staff went above and beyond to accommodate. Meghan even drove to the hotel in the middle of the night to make sure our needs were taken care of.  Great customer service!</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r157087481-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>157087481</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Poor hotel at best</t>
+  </si>
+  <si>
+    <t>This hotel is not up to Holiday Inn Express standards!  Super 8 is better than this place.  To start off our room key would not work and after two trips to the front desk we family got into a room that had dirty carpet and very worn furnishings.  The bathroom tub grout was covered on mold and the door had rust spots.  The only redeaming factor was a comfortable bed.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded July 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2013</t>
+  </si>
+  <si>
+    <t>This hotel is not up to Holiday Inn Express standards!  Super 8 is better than this place.  To start off our room key would not work and after two trips to the front desk we family got into a room that had dirty carpet and very worn furnishings.  The bathroom tub grout was covered on mold and the door had rust spots.  The only redeaming factor was a comfortable bed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r154525860-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>154525860</t>
+  </si>
+  <si>
+    <t>03/14/2013</t>
+  </si>
+  <si>
+    <t>Below expectation</t>
+  </si>
+  <si>
+    <t>When I drove into the parking lot I was approached by a gentlman in a car asking me for gas money, strange.....? The staff was friendly and kind, checked me into my room early, Thank you.  I was put in a room in the back of the hotel near the fire exit, people walking in and out all night, I requested to be near an exit......  hummm.   The window over looked the sagging cover on the outdoor pool. Bathrooms were nice and roomy, but very cold, no heat lamp. Room was very small and clostraphobic, noisey refridgerator. Room was clean, but the door plate was loose on the main door not very comfortable if traveling alone. Creepy being stuck in the back of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2013</t>
+  </si>
+  <si>
+    <t>When I drove into the parking lot I was approached by a gentlman in a car asking me for gas money, strange.....? The staff was friendly and kind, checked me into my room early, Thank you.  I was put in a room in the back of the hotel near the fire exit, people walking in and out all night, I requested to be near an exit......  hummm.   The window over looked the sagging cover on the outdoor pool. Bathrooms were nice and roomy, but very cold, no heat lamp. Room was very small and clostraphobic, noisey refridgerator. Room was clean, but the door plate was loose on the main door not very comfortable if traveling alone. Creepy being stuck in the back of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r151781332-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>151781332</t>
+  </si>
+  <si>
+    <t>02/09/2013</t>
+  </si>
+  <si>
+    <t>Inconsistent</t>
+  </si>
+  <si>
+    <t>I stayed here for 26 days with a coworker and was able to get a great rate when I booked that the hotel staff did not want to accept. After arguing upon check in we were able to keep the rate. I'm sorry I was quoted a price by the corporate office (apparently) that the hotel did not want to accept, but if you had a sales manager at the site that wouldn't have been a problem. We we also never thanked for being platinum members. Once I checked in my room was falling apart. The hotel was fully booked so I was not able to change rooms until a week later, I guess the guests don't drive or eat breakfast as both the dining room and the parking lot were always empty. The day after I checked in I turned in a list of issues with room 225. The blackout curtain rod was missing, drawer knobs falling off, light bulb hanging by a wire, no covers on electrical outlet, the front door would not latch. I had to lift up on the door handle to fully shut the door. 2 of these issues were fixed. Days later I had my room cleaned, when I returned to the room I was able to push the door open since I reported it did not latch. Finally I was moved to a safer room. The heater in 225 only blew hot air...I stayed here for 26 days with a coworker and was able to get a great rate when I booked that the hotel staff did not want to accept. After arguing upon check in we were able to keep the rate. I'm sorry I was quoted a price by the corporate office (apparently) that the hotel did not want to accept, but if you had a sales manager at the site that wouldn't have been a problem. We we also never thanked for being platinum members. Once I checked in my room was falling apart. The hotel was fully booked so I was not able to change rooms until a week later, I guess the guests don't drive or eat breakfast as both the dining room and the parking lot were always empty. The day after I checked in I turned in a list of issues with room 225. The blackout curtain rod was missing, drawer knobs falling off, light bulb hanging by a wire, no covers on electrical outlet, the front door would not latch. I had to lift up on the door handle to fully shut the door. 2 of these issues were fixed. Days later I had my room cleaned, when I returned to the room I was able to push the door open since I reported it did not latch. Finally I was moved to a safer room. The heater in 225 only blew hot air on occasion and the shower did not drain. Don't stay in this room, It is like the room that forgot to be updated. The front desk is inconsistent. Only David and Zack wear button up shirts and name tags. One lady is always in track suits while she is on the phone. Nick the morning desk attendant looks like you woke him up from his nap in the back office if you dare to ring the bell for service. If Zack works the morning shift, that is the only time you will receive a morning paper to your room. I used the laundry room a few times during my stay. The first week the only elevator that takes you to the basement laundry room was out of order. The last week I had to inform the staff that the counter top in the laundry room was in pieces on the floor. I don't think anyone in the motel has any idea what goes beyond the back office. The Managers Reception was the same every week, chips dip and fruit. But one week they did not have any plates to offer so we passed on eating straight out of the bowls. Housekeeping was what you would expect from Holiday Inn.    David at the front desk was the best part of our stay. We was always at the desk, not hiding in the back like the other staff. He was the only person to greet us when we walked in every night and he made us feel very welcome.   I would not stay at this hotel again. It seemed to be falling apart and there was only one staff member who cared.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded February 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here for 26 days with a coworker and was able to get a great rate when I booked that the hotel staff did not want to accept. After arguing upon check in we were able to keep the rate. I'm sorry I was quoted a price by the corporate office (apparently) that the hotel did not want to accept, but if you had a sales manager at the site that wouldn't have been a problem. We we also never thanked for being platinum members. Once I checked in my room was falling apart. The hotel was fully booked so I was not able to change rooms until a week later, I guess the guests don't drive or eat breakfast as both the dining room and the parking lot were always empty. The day after I checked in I turned in a list of issues with room 225. The blackout curtain rod was missing, drawer knobs falling off, light bulb hanging by a wire, no covers on electrical outlet, the front door would not latch. I had to lift up on the door handle to fully shut the door. 2 of these issues were fixed. Days later I had my room cleaned, when I returned to the room I was able to push the door open since I reported it did not latch. Finally I was moved to a safer room. The heater in 225 only blew hot air...I stayed here for 26 days with a coworker and was able to get a great rate when I booked that the hotel staff did not want to accept. After arguing upon check in we were able to keep the rate. I'm sorry I was quoted a price by the corporate office (apparently) that the hotel did not want to accept, but if you had a sales manager at the site that wouldn't have been a problem. We we also never thanked for being platinum members. Once I checked in my room was falling apart. The hotel was fully booked so I was not able to change rooms until a week later, I guess the guests don't drive or eat breakfast as both the dining room and the parking lot were always empty. The day after I checked in I turned in a list of issues with room 225. The blackout curtain rod was missing, drawer knobs falling off, light bulb hanging by a wire, no covers on electrical outlet, the front door would not latch. I had to lift up on the door handle to fully shut the door. 2 of these issues were fixed. Days later I had my room cleaned, when I returned to the room I was able to push the door open since I reported it did not latch. Finally I was moved to a safer room. The heater in 225 only blew hot air on occasion and the shower did not drain. Don't stay in this room, It is like the room that forgot to be updated. The front desk is inconsistent. Only David and Zack wear button up shirts and name tags. One lady is always in track suits while she is on the phone. Nick the morning desk attendant looks like you woke him up from his nap in the back office if you dare to ring the bell for service. If Zack works the morning shift, that is the only time you will receive a morning paper to your room. I used the laundry room a few times during my stay. The first week the only elevator that takes you to the basement laundry room was out of order. The last week I had to inform the staff that the counter top in the laundry room was in pieces on the floor. I don't think anyone in the motel has any idea what goes beyond the back office. The Managers Reception was the same every week, chips dip and fruit. But one week they did not have any plates to offer so we passed on eating straight out of the bowls. Housekeeping was what you would expect from Holiday Inn.    David at the front desk was the best part of our stay. We was always at the desk, not hiding in the back like the other staff. He was the only person to greet us when we walked in every night and he made us feel very welcome.   I would not stay at this hotel again. It seemed to be falling apart and there was only one staff member who cared.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r150367086-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>150367086</t>
+  </si>
+  <si>
+    <t>01/23/2013</t>
+  </si>
+  <si>
+    <t>Great Staff, But Property could use some work...</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights to use some rewards points.  The staff was very friendly however we had several problems with the locks not wanting to read the key cards.  The rooms were decent, but not very impressive.  The rooms could use a remodel to fix some of the "cheaper fixes" that were made in the past.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Megan K, Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 25, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights to use some rewards points.  The staff was very friendly however we had several problems with the locks not wanting to read the key cards.  The rooms were decent, but not very impressive.  The rooms could use a remodel to fix some of the "cheaper fixes" that were made in the past.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r145242539-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>145242539</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>HORRIBLE EXPERIENCE!</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel on 8/30/12 and purchased the 5000 point bonus package through www.holidayinn.com.  Hotel never credited the Priority Club points.  Contacted Holiday Inn and they said there was nothing they could do and I needed to contact the hotel directly.  Hotel would never respond until I filed a complaint with the BBB.  They finally replied and blamed Holiday Inn for the error and said they would correct.  Weeks later they still have not credited the points and are now saying I need to contact Holiday Inn to resolve who will not do anything.  Bad business process on Holiday Inn's part where they sell the packages but rely on the hotels to credit the points which costs the hotel money.  The hotels know Holiday Inn won't do anything so incentive for them not to give the points you have paid for.  I have been a Platinum member of Priority Club for several years and have never encountered a hotel in the chain that services their customers this poorly.  I would recommending staying at one of the many other competing hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Megan K, General Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded November 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 19, 2012</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel on 8/30/12 and purchased the 5000 point bonus package through www.holidayinn.com.  Hotel never credited the Priority Club points.  Contacted Holiday Inn and they said there was nothing they could do and I needed to contact the hotel directly.  Hotel would never respond until I filed a complaint with the BBB.  They finally replied and blamed Holiday Inn for the error and said they would correct.  Weeks later they still have not credited the points and are now saying I need to contact Holiday Inn to resolve who will not do anything.  Bad business process on Holiday Inn's part where they sell the packages but rely on the hotels to credit the points which costs the hotel money.  The hotels know Holiday Inn won't do anything so incentive for them not to give the points you have paid for.  I have been a Platinum member of Priority Club for several years and have never encountered a hotel in the chain that services their customers this poorly.  I would recommending staying at one of the many other competing hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r144979524-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>144979524</t>
+  </si>
+  <si>
+    <t>11/08/2012</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>Fantastic staff! The Gentelman, Dave, who works the evening shift was very accommodating, friendly and will definitely be back because of him. Good breakfast,  nice sizeable rooms, and a good center all locationMoreShow less</t>
+  </si>
+  <si>
+    <t>Fantastic staff! The Gentelman, Dave, who works the evening shift was very accommodating, friendly and will definitely be back because of him. Good breakfast,  nice sizeable rooms, and a good center all locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r143725445-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>143725445</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Hotel is nothing special.</t>
+  </si>
+  <si>
+    <t>We have an average experience when staying here. The rooms were okay. The bed was comfortable and the TV and AC were up to date. The fact that I could hear conversations from the hallway and the rooms next door was not okay. The noise in this hotel was unbelievable. I'm not a light sleeper, so noise in a hotel keeping me awake is rare. They must have had some teams staying here because there were a lot of children whose parents clearly were no where to be found. Keep in mind we did come back to the hotel late all of the nights we were here because we were busy exploring the town. All of the nights the kids continuously ran up and down the halls and even knocked on our door once. All of the ruckus outside of the room was on top of the noise our neighbors were making "getting down to business." There was also a constant drip coming from the bathroom that I never could quite figure out. Our sink was slow draining and I had to go down to the desk for them to send maintenance up to fix it. When we checked in the front desk staff was efficient but nothing special, and the front desk service went downhill from that first encounter. The one good thing is the breakfast staff was fantastic. They were super sweet! Breakfast was well stocked and very...We have an average experience when staying here. The rooms were okay. The bed was comfortable and the TV and AC were up to date. The fact that I could hear conversations from the hallway and the rooms next door was not okay. The noise in this hotel was unbelievable. I'm not a light sleeper, so noise in a hotel keeping me awake is rare. They must have had some teams staying here because there were a lot of children whose parents clearly were no where to be found. Keep in mind we did come back to the hotel late all of the nights we were here because we were busy exploring the town. All of the nights the kids continuously ran up and down the halls and even knocked on our door once. All of the ruckus outside of the room was on top of the noise our neighbors were making "getting down to business." There was also a constant drip coming from the bathroom that I never could quite figure out. Our sink was slow draining and I had to go down to the desk for them to send maintenance up to fix it. When we checked in the front desk staff was efficient but nothing special, and the front desk service went downhill from that first encounter. The one good thing is the breakfast staff was fantastic. They were super sweet! Breakfast was well stocked and very good. If you want a quiet stay and a more friendly front desk staff I would suggest staying somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>We have an average experience when staying here. The rooms were okay. The bed was comfortable and the TV and AC were up to date. The fact that I could hear conversations from the hallway and the rooms next door was not okay. The noise in this hotel was unbelievable. I'm not a light sleeper, so noise in a hotel keeping me awake is rare. They must have had some teams staying here because there were a lot of children whose parents clearly were no where to be found. Keep in mind we did come back to the hotel late all of the nights we were here because we were busy exploring the town. All of the nights the kids continuously ran up and down the halls and even knocked on our door once. All of the ruckus outside of the room was on top of the noise our neighbors were making "getting down to business." There was also a constant drip coming from the bathroom that I never could quite figure out. Our sink was slow draining and I had to go down to the desk for them to send maintenance up to fix it. When we checked in the front desk staff was efficient but nothing special, and the front desk service went downhill from that first encounter. The one good thing is the breakfast staff was fantastic. They were super sweet! Breakfast was well stocked and very...We have an average experience when staying here. The rooms were okay. The bed was comfortable and the TV and AC were up to date. The fact that I could hear conversations from the hallway and the rooms next door was not okay. The noise in this hotel was unbelievable. I'm not a light sleeper, so noise in a hotel keeping me awake is rare. They must have had some teams staying here because there were a lot of children whose parents clearly were no where to be found. Keep in mind we did come back to the hotel late all of the nights we were here because we were busy exploring the town. All of the nights the kids continuously ran up and down the halls and even knocked on our door once. All of the ruckus outside of the room was on top of the noise our neighbors were making "getting down to business." There was also a constant drip coming from the bathroom that I never could quite figure out. Our sink was slow draining and I had to go down to the desk for them to send maintenance up to fix it. When we checked in the front desk staff was efficient but nothing special, and the front desk service went downhill from that first encounter. The one good thing is the breakfast staff was fantastic. They were super sweet! Breakfast was well stocked and very good. If you want a quiet stay and a more friendly front desk staff I would suggest staying somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r140561933-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>140561933</t>
+  </si>
+  <si>
+    <t>09/17/2012</t>
+  </si>
+  <si>
+    <t>Left a lot to be desired.</t>
+  </si>
+  <si>
+    <t>This was the 4th Holiday Inn Express we’ve stayed at this week. We stayed there because of the proximity to our son’s house and we are Gold Priority Club member.
+At check in the front desk staff acted as if they were doing us a favor.  I asked for two keys and got a deep sigh, as if it was such an imposition. 
+We initialed the booked rate and they charged our card a lot higher rate. When I called to complain, the front desk clerk (David) said he was busy checking in a guest, please hold about 5 min. when I’ll be able to help you. I asked him to call me back and he just put me on hold.  I called beck after 5min. and stated the purpose of my call he looked up our reservation and told me they always hold a certain additional amount in case of damages. The actual charge would show up within a few days. We are Gold Priority Club members and have never had this happen. 
+The AC in public areas was kept at a high temperature, obviously to save money. The guest laundry in the basement was unbearably hot.
+I called down to see if someone would come check our refrigerator; because it was not working (we need to keep medications cold). I was told someone would be right up to check it out. We waited unable to unpack or relax...This was the 4th Holiday Inn Express we’ve stayed at this week. We stayed there because of the proximity to our son’s house and we are Gold Priority Club member.At check in the front desk staff acted as if they were doing us a favor.  I asked for two keys and got a deep sigh, as if it was such an imposition. We initialed the booked rate and they charged our card a lot higher rate. When I called to complain, the front desk clerk (David) said he was busy checking in a guest, please hold about 5 min. when I’ll be able to help you. I asked him to call me back and he just put me on hold.  I called beck after 5min. and stated the purpose of my call he looked up our reservation and told me they always hold a certain additional amount in case of damages. The actual charge would show up within a few days. We are Gold Priority Club members and have never had this happen. The AC in public areas was kept at a high temperature, obviously to save money. The guest laundry in the basement was unbearably hot.I called down to see if someone would come check our refrigerator; because it was not working (we need to keep medications cold). I was told someone would be right up to check it out. We waited unable to unpack or relax in case we had to change rooms.  Half hour later my husband called down again he was told to come get the key to another room, because their technician had left. When I went down to ask for a second key Dave the front desk clerk asked me how many nights we were staying. The bath tub and surrounding tiles need to be replaced. This was the case in both bathrooms we experienced. Mold around the tile and glued slip mat was ripped up and coming unglued. The computers in the Business Center were not working. I went to the front desk to see if someone would check them out. I was told the technician would not be in until that afternoon, sorry.If you ask for a manager... you'll never see one. Probably out with the technician.It was not a pleasant experience. I would not recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Joeseph O, Director of Sales at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>This was the 4th Holiday Inn Express we’ve stayed at this week. We stayed there because of the proximity to our son’s house and we are Gold Priority Club member.
+At check in the front desk staff acted as if they were doing us a favor.  I asked for two keys and got a deep sigh, as if it was such an imposition. 
+We initialed the booked rate and they charged our card a lot higher rate. When I called to complain, the front desk clerk (David) said he was busy checking in a guest, please hold about 5 min. when I’ll be able to help you. I asked him to call me back and he just put me on hold.  I called beck after 5min. and stated the purpose of my call he looked up our reservation and told me they always hold a certain additional amount in case of damages. The actual charge would show up within a few days. We are Gold Priority Club members and have never had this happen. 
+The AC in public areas was kept at a high temperature, obviously to save money. The guest laundry in the basement was unbearably hot.
+I called down to see if someone would come check our refrigerator; because it was not working (we need to keep medications cold). I was told someone would be right up to check it out. We waited unable to unpack or relax...This was the 4th Holiday Inn Express we’ve stayed at this week. We stayed there because of the proximity to our son’s house and we are Gold Priority Club member.At check in the front desk staff acted as if they were doing us a favor.  I asked for two keys and got a deep sigh, as if it was such an imposition. We initialed the booked rate and they charged our card a lot higher rate. When I called to complain, the front desk clerk (David) said he was busy checking in a guest, please hold about 5 min. when I’ll be able to help you. I asked him to call me back and he just put me on hold.  I called beck after 5min. and stated the purpose of my call he looked up our reservation and told me they always hold a certain additional amount in case of damages. The actual charge would show up within a few days. We are Gold Priority Club members and have never had this happen. The AC in public areas was kept at a high temperature, obviously to save money. The guest laundry in the basement was unbearably hot.I called down to see if someone would come check our refrigerator; because it was not working (we need to keep medications cold). I was told someone would be right up to check it out. We waited unable to unpack or relax in case we had to change rooms.  Half hour later my husband called down again he was told to come get the key to another room, because their technician had left. When I went down to ask for a second key Dave the front desk clerk asked me how many nights we were staying. The bath tub and surrounding tiles need to be replaced. This was the case in both bathrooms we experienced. Mold around the tile and glued slip mat was ripped up and coming unglued. The computers in the Business Center were not working. I went to the front desk to see if someone would check them out. I was told the technician would not be in until that afternoon, sorry.If you ask for a manager... you'll never see one. Probably out with the technician.It was not a pleasant experience. I would not recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r139269456-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>139269456</t>
+  </si>
+  <si>
+    <t>09/03/2012</t>
+  </si>
+  <si>
+    <t>Hotel nightmare</t>
+  </si>
+  <si>
+    <t>This hotel is in poor management to say the least. I reserved a two-bed room because i was traveling with my child, i also had my two dogs with me who sleep in there own bed i bring with us. when i arrived the front desk did not make me aware that they had moved me to a king room, for what reason they weren't sure but that was all they had. I made due and told them it was fine. when i finally unloaded everyone and all the luggage, i was ready to relax. i went into the restroom to wash my face and noticed soap wrappers on the floor, i was questioning weather the bathroom had even been cleaned? but decided to just live with it i was very tired. after that i started realizing all the other things. my frig did not work my air condition sounded like a jet taking off and the bathtub mat was all bubbled up i could not even bath my child. the next morning in went to the front desk to let them know of all the issues, there response baffled me. the young girl stated that frigs do not come with the room that they put them in there complementary which is ridiculous. everything else was just another excuse. I told her i did not feel safe nor did i feel like the room was clean i requested to check...This hotel is in poor management to say the least. I reserved a two-bed room because i was traveling with my child, i also had my two dogs with me who sleep in there own bed i bring with us. when i arrived the front desk did not make me aware that they had moved me to a king room, for what reason they weren't sure but that was all they had. I made due and told them it was fine. when i finally unloaded everyone and all the luggage, i was ready to relax. i went into the restroom to wash my face and noticed soap wrappers on the floor, i was questioning weather the bathroom had even been cleaned? but decided to just live with it i was very tired. after that i started realizing all the other things. my frig did not work my air condition sounded like a jet taking off and the bathtub mat was all bubbled up i could not even bath my child. the next morning in went to the front desk to let them know of all the issues, there response baffled me. the young girl stated that frigs do not come with the room that they put them in there complementary which is ridiculous. everything else was just another excuse. I told her i did not feel safe nor did i feel like the room was clean i requested to check out this was at 7am, she stated there was nothing she could do and she could not check me out unless a manager approved it . i had been asking for the manager Glenn since day one. unforgettably he was out of town and from what the front desk said he refuses to answer his phone, i asked that she at least call him and let him know the situation, she declined than and only than did she say she could move me. I figured i would just move and be done and hope no more problems i was sadly let down again. when i went to get my dogs food bowl it was alive infested with ants everywhere i was so disgusted. i did not find the need to again address the front desk because i knew what there response would be and there would be nothing done about it. I travel at least 3 times a month and this hotel is by far the worst hotel I've ever stayed in, room is gross and staff is very uninformed and unprofessional. I will never stay there again and i advise any one looking for a clean comfortable room do not stay here choose somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded September 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2012</t>
+  </si>
+  <si>
+    <t>This hotel is in poor management to say the least. I reserved a two-bed room because i was traveling with my child, i also had my two dogs with me who sleep in there own bed i bring with us. when i arrived the front desk did not make me aware that they had moved me to a king room, for what reason they weren't sure but that was all they had. I made due and told them it was fine. when i finally unloaded everyone and all the luggage, i was ready to relax. i went into the restroom to wash my face and noticed soap wrappers on the floor, i was questioning weather the bathroom had even been cleaned? but decided to just live with it i was very tired. after that i started realizing all the other things. my frig did not work my air condition sounded like a jet taking off and the bathtub mat was all bubbled up i could not even bath my child. the next morning in went to the front desk to let them know of all the issues, there response baffled me. the young girl stated that frigs do not come with the room that they put them in there complementary which is ridiculous. everything else was just another excuse. I told her i did not feel safe nor did i feel like the room was clean i requested to check...This hotel is in poor management to say the least. I reserved a two-bed room because i was traveling with my child, i also had my two dogs with me who sleep in there own bed i bring with us. when i arrived the front desk did not make me aware that they had moved me to a king room, for what reason they weren't sure but that was all they had. I made due and told them it was fine. when i finally unloaded everyone and all the luggage, i was ready to relax. i went into the restroom to wash my face and noticed soap wrappers on the floor, i was questioning weather the bathroom had even been cleaned? but decided to just live with it i was very tired. after that i started realizing all the other things. my frig did not work my air condition sounded like a jet taking off and the bathtub mat was all bubbled up i could not even bath my child. the next morning in went to the front desk to let them know of all the issues, there response baffled me. the young girl stated that frigs do not come with the room that they put them in there complementary which is ridiculous. everything else was just another excuse. I told her i did not feel safe nor did i feel like the room was clean i requested to check out this was at 7am, she stated there was nothing she could do and she could not check me out unless a manager approved it . i had been asking for the manager Glenn since day one. unforgettably he was out of town and from what the front desk said he refuses to answer his phone, i asked that she at least call him and let him know the situation, she declined than and only than did she say she could move me. I figured i would just move and be done and hope no more problems i was sadly let down again. when i went to get my dogs food bowl it was alive infested with ants everywhere i was so disgusted. i did not find the need to again address the front desk because i knew what there response would be and there would be nothing done about it. I travel at least 3 times a month and this hotel is by far the worst hotel I've ever stayed in, room is gross and staff is very uninformed and unprofessional. I will never stay there again and i advise any one looking for a clean comfortable room do not stay here choose somewhere else.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r135974755-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>135974755</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>the last days in a comfortable place!</t>
+  </si>
+  <si>
+    <t>We spent our last days of our honey- moon in this hotel and we are really pleased about it!People at the reception are really kind and the rooms have all that you need!There are  air condition, free wi-fi, a micro-waves, a fridge, the hair-dryer, the iron and a coffee-machine with all kind of coffee! In the bathroom you can find a lot of towels, shampoo and also a body lotion! The bed is really comfortable and there are different kind of pillows!There also a gym-room and a business room with 2 computers and a printer and also a meeting room!Breakfast in the morning is pretty big with muffins, bagels, pancakes, cinneamon rolls, yogurts, sausages and all kind of drinks!We suggest it because it's also not expensive!MoreShow less</t>
+  </si>
+  <si>
+    <t>Joeseph O, Public Relations Manager at Holiday Inn Express Denver Aurora - Medical Center, responded to this reviewResponded October 2, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 2, 2012</t>
+  </si>
+  <si>
+    <t>We spent our last days of our honey- moon in this hotel and we are really pleased about it!People at the reception are really kind and the rooms have all that you need!There are  air condition, free wi-fi, a micro-waves, a fridge, the hair-dryer, the iron and a coffee-machine with all kind of coffee! In the bathroom you can find a lot of towels, shampoo and also a body lotion! The bed is really comfortable and there are different kind of pillows!There also a gym-room and a business room with 2 computers and a printer and also a meeting room!Breakfast in the morning is pretty big with muffins, bagels, pancakes, cinneamon rolls, yogurts, sausages and all kind of drinks!We suggest it because it's also not expensive!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r132526822-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>132526822</t>
+  </si>
+  <si>
+    <t>06/22/2012</t>
+  </si>
+  <si>
+    <t>Clean, comfortable, friendly</t>
+  </si>
+  <si>
+    <t>I liked this holiday inn, price was reasonable, not too far from the airport, staff was friendly and they have a nice complimentary breakfast setupGood place for s short stay</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r132514588-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>132514588</t>
+  </si>
+  <si>
+    <t>I usually love HIE, but NOT this one</t>
+  </si>
+  <si>
+    <t>As a loyal HIE guest this is a difficult, but necessary review to write. 
+Hubby and I were so disappointed with our stay.  First, the room seemed like a really bad remodel. Everything just seemed old...or much older than what our usual HIE experiences are like. It was like a bad hand-me-down room if that makes any sense. 
+ Anyway, we had to switch rooms because our air condition wasn't working properly. This was annoying of course after a long drive and the halls/elevators are HOT. So we switch to a room that is literally across the hall and it's nicer looking. Of course I was frustrated by the sight and the fact that we weren't put in the nicer/newer room to begin with. It seems to have gotten a better remodel than our first room, but unfortunatelty the room never got cold. So disappointing! Let me just say, that I am one who takes full advantage and will lower the air-condition to 65 degrees, but I would have settled for a cool 73 at this place. 
+The beds in BOTH rooms were NOT comfy. I can't say anymore about them they were horrible. So needless to say neither one of us got a good night sleep.
+Breakfast was good...they had some type of omelet if that tickles your fancy. However, it's not enough to save this HIE. 
+Plus, it's overpriced. This hotel should not be charging over $79.00 and that's...As a loyal HIE guest this is a difficult, but necessary review to write. Hubby and I were so disappointed with our stay.  First, the room seemed like a really bad remodel. Everything just seemed old...or much older than what our usual HIE experiences are like. It was like a bad hand-me-down room if that makes any sense.  Anyway, we had to switch rooms because our air condition wasn't working properly. This was annoying of course after a long drive and the halls/elevators are HOT. So we switch to a room that is literally across the hall and it's nicer looking. Of course I was frustrated by the sight and the fact that we weren't put in the nicer/newer room to begin with. It seems to have gotten a better remodel than our first room, but unfortunatelty the room never got cold. So disappointing! Let me just say, that I am one who takes full advantage and will lower the air-condition to 65 degrees, but I would have settled for a cool 73 at this place. The beds in BOTH rooms were NOT comfy. I can't say anymore about them they were horrible. So needless to say neither one of us got a good night sleep.Breakfast was good...they had some type of omelet if that tickles your fancy. However, it's not enough to save this HIE. Plus, it's overpriced. This hotel should not be charging over $79.00 and that's if every other hotel is sold out because some amazing event is happening nearby.  Yes, I'm bitter that we paid $130 dollars for a room that should have cost $49-59.MoreShow less</t>
+  </si>
+  <si>
+    <t>As a loyal HIE guest this is a difficult, but necessary review to write. 
+Hubby and I were so disappointed with our stay.  First, the room seemed like a really bad remodel. Everything just seemed old...or much older than what our usual HIE experiences are like. It was like a bad hand-me-down room if that makes any sense. 
+ Anyway, we had to switch rooms because our air condition wasn't working properly. This was annoying of course after a long drive and the halls/elevators are HOT. So we switch to a room that is literally across the hall and it's nicer looking. Of course I was frustrated by the sight and the fact that we weren't put in the nicer/newer room to begin with. It seems to have gotten a better remodel than our first room, but unfortunatelty the room never got cold. So disappointing! Let me just say, that I am one who takes full advantage and will lower the air-condition to 65 degrees, but I would have settled for a cool 73 at this place. 
+The beds in BOTH rooms were NOT comfy. I can't say anymore about them they were horrible. So needless to say neither one of us got a good night sleep.
+Breakfast was good...they had some type of omelet if that tickles your fancy. However, it's not enough to save this HIE. 
+Plus, it's overpriced. This hotel should not be charging over $79.00 and that's...As a loyal HIE guest this is a difficult, but necessary review to write. Hubby and I were so disappointed with our stay.  First, the room seemed like a really bad remodel. Everything just seemed old...or much older than what our usual HIE experiences are like. It was like a bad hand-me-down room if that makes any sense.  Anyway, we had to switch rooms because our air condition wasn't working properly. This was annoying of course after a long drive and the halls/elevators are HOT. So we switch to a room that is literally across the hall and it's nicer looking. Of course I was frustrated by the sight and the fact that we weren't put in the nicer/newer room to begin with. It seems to have gotten a better remodel than our first room, but unfortunatelty the room never got cold. So disappointing! Let me just say, that I am one who takes full advantage and will lower the air-condition to 65 degrees, but I would have settled for a cool 73 at this place. The beds in BOTH rooms were NOT comfy. I can't say anymore about them they were horrible. So needless to say neither one of us got a good night sleep.Breakfast was good...they had some type of omelet if that tickles your fancy. However, it's not enough to save this HIE. Plus, it's overpriced. This hotel should not be charging over $79.00 and that's if every other hotel is sold out because some amazing event is happening nearby.  Yes, I'm bitter that we paid $130 dollars for a room that should have cost $49-59.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r132056242-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>132056242</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Good, Affordable, Breakfast Included</t>
+  </si>
+  <si>
+    <t>We stayed here because we had a late arriving flight and did not want to drive overnight with a 17 month old to Wyoming.  This hotel is close to the airport, affordable, and includes breakfast.  Can you ask for anything more?  We checked in around midnight and the front desk attendant was prompt and helpful.  The room was sizeable, clean, modern and comfortable.  I would recommend this place to anyone.  I liked the variety of the breakfast also.  Cereal, eggs, sausage, pancake machine, rolls, oatmeal, etc.  If you need a place to stay in this area, stay here.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r122658164-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>122658164</t>
+  </si>
+  <si>
+    <t>01/06/2012</t>
+  </si>
+  <si>
+    <t>Excellent Value</t>
+  </si>
+  <si>
+    <t>My two sons and I stayed at the Holiday Inn Express in Aurora, CO on December 23, 2011 and found it to be an extraordinary value.  It seemed brand new, very clean and modern.  Our room had two queen beds which were very comfortable and the room was spacious, even the bathroom which seemed larger than normal.  The free breakfast was ample and the room included free wifi.  The staff was courteous and helpful, especially Mark, who was kind enough to retrieve and hold for me the coat and shoes that I left in the closet a full 8 hours after checking out!  I picked them up a week later without problem.  The closet can be mistaken for a full length mirror, so make sure you remember any personal items that you or members of your party may place there.  Very nice hotel, especially at such a reasonable price.  Also, very close to the airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>My two sons and I stayed at the Holiday Inn Express in Aurora, CO on December 23, 2011 and found it to be an extraordinary value.  It seemed brand new, very clean and modern.  Our room had two queen beds which were very comfortable and the room was spacious, even the bathroom which seemed larger than normal.  The free breakfast was ample and the room included free wifi.  The staff was courteous and helpful, especially Mark, who was kind enough to retrieve and hold for me the coat and shoes that I left in the closet a full 8 hours after checking out!  I picked them up a week later without problem.  The closet can be mistaken for a full length mirror, so make sure you remember any personal items that you or members of your party may place there.  Very nice hotel, especially at such a reasonable price.  Also, very close to the airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r119520919-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>119520919</t>
+  </si>
+  <si>
+    <t>10/20/2011</t>
+  </si>
+  <si>
+    <t>Almost a great hotel</t>
+  </si>
+  <si>
+    <t>My husband and I flew in just for one night on a quick trip to Aurora.   We got to the hotel and they gave us an early check in, and up to our room we went.  The room was a nice size.  We had a king size bed, desk, couch, table and fridge.  All was good.  Even a lot of restaurants close by.  When it was time to go to bed, thinks just got bad.There were long black hair in between the sheets.  There were a lot like housekeeping did not change the sheets.  Needless to say we did not sleep in the bed.   So what started out great ended not so great.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>My husband and I flew in just for one night on a quick trip to Aurora.   We got to the hotel and they gave us an early check in, and up to our room we went.  The room was a nice size.  We had a king size bed, desk, couch, table and fridge.  All was good.  Even a lot of restaurants close by.  When it was time to go to bed, thinks just got bad.There were long black hair in between the sheets.  There were a lot like housekeeping did not change the sheets.  Needless to say we did not sleep in the bed.   So what started out great ended not so great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r119009567-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>119009567</t>
+  </si>
+  <si>
+    <t>10/06/2011</t>
+  </si>
+  <si>
+    <t>Uncomfortable Beds</t>
+  </si>
+  <si>
+    <t>When we arrived the gentleman at the front counter was not very friendly.  The room was fine.  We checked for bed bugs but didn't find any.  The beds were really uncomfortable and we did not sleep well.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r109981509-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>109981509</t>
+  </si>
+  <si>
+    <t>05/26/2011</t>
+  </si>
+  <si>
+    <t>Just got back from a 1 night stay at the Holiday Inn Express.  The rooms were clean and it was nice to have a fridge and microwave in the room.  The free breakfast included more or less standard fare (eggs, cereal, yogurt) as well as a machine that prepared fresh pancakes.  The staff was very friendly and responsive to our needs.  Got a great price on Priceline ($45 plus taxes and fees).  Would not hesitate to stay there again!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r94476315-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>94476315</t>
+  </si>
+  <si>
+    <t>01/26/2011</t>
+  </si>
+  <si>
+    <t>Very accomadating</t>
+  </si>
+  <si>
+    <t>I travel often for work and it was a very pleasant suprise how clean this hotel was.  It was also a very pleasant surprise how friendly the staff was (i.e. they acknowledge you in the morning by saying good morning) The receptionist (Christy) at the front desk was so accomading and friendly when I chekcked in that she made me feel like I was at home.  The room I stayed in was spacious and had a couch, LCD tv, microwave and refrigerator (bar size).  I was also happy with the continental breakfast.  They had a variety of things to choose from to get me ready for my day.  In the evening if you're looking for something to eat there is an Outback and Carrabba's very close.  I didn't do it, but I saw on one of the channels that the Carrabba's will deliver food to the hotel.  There isn't room service, but the local restaurants in the vicinity will deliver.  Overall, I enjoyed my stayed, it was clean, quiet, the staff was freindly that made my two night stay enjoyable.  Thanks Christy!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2011</t>
+  </si>
+  <si>
+    <t>I travel often for work and it was a very pleasant suprise how clean this hotel was.  It was also a very pleasant surprise how friendly the staff was (i.e. they acknowledge you in the morning by saying good morning) The receptionist (Christy) at the front desk was so accomading and friendly when I chekcked in that she made me feel like I was at home.  The room I stayed in was spacious and had a couch, LCD tv, microwave and refrigerator (bar size).  I was also happy with the continental breakfast.  They had a variety of things to choose from to get me ready for my day.  In the evening if you're looking for something to eat there is an Outback and Carrabba's very close.  I didn't do it, but I saw on one of the channels that the Carrabba's will deliver food to the hotel.  There isn't room service, but the local restaurants in the vicinity will deliver.  Overall, I enjoyed my stayed, it was clean, quiet, the staff was freindly that made my two night stay enjoyable.  Thanks Christy!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r92465335-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>92465335</t>
+  </si>
+  <si>
+    <t>01/10/2011</t>
+  </si>
+  <si>
+    <t>Excellent staff and hotel!  Wonderful experience and stay!</t>
+  </si>
+  <si>
+    <t>The owner of this hotel should be thrilled to have this staff working for him.  Michael at the front desk is the GREATEST-along with Devon and Glenn!  They offer excellent customer service to all of their guests.  The hotel itself is great, we ended up spending several months at this location and we were very pleased.  We were in the area for my husband's work.  The hotel is very clean and comfortable.  The rooms have a nice little area with built in cabinets, a microwave, mini-fridge and sink.  They go above and beyond to make sure you are pleased with your stay.  The daily hot breakfast and manager's reception (Monday-Thursday) with food are a nice bonus too! :)   I think it was a great price for all that we received and I would highly recommend it to travelers that will be in that area.MoreShow less</t>
+  </si>
+  <si>
+    <t>The owner of this hotel should be thrilled to have this staff working for him.  Michael at the front desk is the GREATEST-along with Devon and Glenn!  They offer excellent customer service to all of their guests.  The hotel itself is great, we ended up spending several months at this location and we were very pleased.  We were in the area for my husband's work.  The hotel is very clean and comfortable.  The rooms have a nice little area with built in cabinets, a microwave, mini-fridge and sink.  They go above and beyond to make sure you are pleased with your stay.  The daily hot breakfast and manager's reception (Monday-Thursday) with food are a nice bonus too! :)   I think it was a great price for all that we received and I would highly recommend it to travelers that will be in that area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r84649044-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>84649044</t>
+  </si>
+  <si>
+    <t>10/24/2010</t>
+  </si>
+  <si>
+    <t>Excellent Staff</t>
+  </si>
+  <si>
+    <t>I have stayed at this Holiday Inn multiple times because it is near my mother's nursing home.  I always find the staff to be very friendly and accommodating.  The Hotel is neat and clean with a fair free breakfast.  I do recommend this location.</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r81107777-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>81107777</t>
+  </si>
+  <si>
+    <t>09/26/2010</t>
+  </si>
+  <si>
+    <t>Not the Best Value</t>
+  </si>
+  <si>
+    <t>We reserved this room many months in advance and were told by the web site that we would receive this "Internet Only" price if we chose the room at that point. Otherwise it would be higher when we arrive. I found that they were quoting the exact same price to others the same day we arrived. Then, we were placed on the 4th floor right next to the nearby Interstate highway. We did not anticipate any problem with that because we could run the air conditioning fan that night which would drown out the noise. We left to visit friends and when we returned we found the fan would not work. We called the desk to complain and the only response we got was that maintenance was not working (it was 11:30 PM), but no suggestion was made to move rooms. Needless to say, it was a rough night of sleep. They gave us a 15% discount, which I felt was not adequate, but did not want to argue because we had a plane to catch.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2010</t>
+  </si>
+  <si>
+    <t>We reserved this room many months in advance and were told by the web site that we would receive this "Internet Only" price if we chose the room at that point. Otherwise it would be higher when we arrive. I found that they were quoting the exact same price to others the same day we arrived. Then, we were placed on the 4th floor right next to the nearby Interstate highway. We did not anticipate any problem with that because we could run the air conditioning fan that night which would drown out the noise. We left to visit friends and when we returned we found the fan would not work. We called the desk to complain and the only response we got was that maintenance was not working (it was 11:30 PM), but no suggestion was made to move rooms. Needless to say, it was a rough night of sleep. They gave us a 15% discount, which I felt was not adequate, but did not want to argue because we had a plane to catch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r80644847-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>80644847</t>
+  </si>
+  <si>
+    <t>09/22/2010</t>
+  </si>
+  <si>
+    <t>Fabulous staff and great value, very pleased with our stay!</t>
+  </si>
+  <si>
+    <t>Let me start by saying that the front desk staff (especially Michael and Nate) along with  housekeeping staff at this hotel are all fabulous!! The front desk staff will go out of their way to assist you.  They are very friendly and great with local info.  My husband is working in the area and we have been here for 30 nights.  So I believe I can give a fair assessment.  The breakfast buffet seems nice to me, there are biscuits, gravy, sausage or bacon, bagels, yogurt, fruit, cereal, cinnamon rolls, etc.  And they have a Manager's reception Monday thru Thursday where food is catered in.  It is very nice, some nights they have pizza, pasta, salads, sandwiches, etc.  I think this is a nice touch for people who do not want to get out after a busy day at work.  The location is convenient, it is right off the freeway and near restaurants.  The room is a nice size, with a love seat, microwave, mini-fridge and a flat screen TV.  We are very pleased with this hotel and would recommend it to our friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>Let me start by saying that the front desk staff (especially Michael and Nate) along with  housekeeping staff at this hotel are all fabulous!! The front desk staff will go out of their way to assist you.  They are very friendly and great with local info.  My husband is working in the area and we have been here for 30 nights.  So I believe I can give a fair assessment.  The breakfast buffet seems nice to me, there are biscuits, gravy, sausage or bacon, bagels, yogurt, fruit, cereal, cinnamon rolls, etc.  And they have a Manager's reception Monday thru Thursday where food is catered in.  It is very nice, some nights they have pizza, pasta, salads, sandwiches, etc.  I think this is a nice touch for people who do not want to get out after a busy day at work.  The location is convenient, it is right off the freeway and near restaurants.  The room is a nice size, with a love seat, microwave, mini-fridge and a flat screen TV.  We are very pleased with this hotel and would recommend it to our friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r74541331-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>74541331</t>
+  </si>
+  <si>
+    <t>08/09/2010</t>
+  </si>
+  <si>
+    <t>Great hotel with many extras !</t>
+  </si>
+  <si>
+    <t>I stayed here for 6 nights and found it to be a very nice and welcoming place. The staff was excellent and very helpful.  The rooms were extremely comfortable and clean.  They have a small but very good business center as well as a nice exercise room with several machines. Breakfast was not gourmet but good.  Also,  they have a large outdoor pool that was an unexpected treat.  Appetizers from local restaurants were available every day at dinner.  My room was very clean -  large TV and comfortable bed.  V. PetersonBoston</t>
+  </si>
+  <si>
+    <t>August 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r73587535-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>73587535</t>
+  </si>
+  <si>
+    <t>08/03/2010</t>
+  </si>
+  <si>
+    <t>Pleasantly Surprised</t>
+  </si>
+  <si>
+    <t>I have stayed at several Holiday Day Inn Expresses over the years and I was pleasantly surprised by the quality of service and care. The room was clean and well maintained. No peeling walling paper, cracking paint or grime build-up. The staff was helpful and courteous. Of all the hotels I have stayed in that are at this price/grade/level, this is by far the best one. Our three-night stay was great!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r67581229-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>67581229</t>
+  </si>
+  <si>
+    <t>06/15/2010</t>
+  </si>
+  <si>
+    <t>stay  away from this location</t>
+  </si>
+  <si>
+    <t>i am writing this review from the hotel room . i booked this hotel based on the reviews i read on this site. i honestly believe they were written by the hotel staff or something . i'm not a high maintenance guy at all, this is my 6th hotel in a long vacation , and it ranks easily at the bottom .the room is so beat up , and needs major renovation ,the highway noise is just unbearable ...this stay really ruined my sense of getaway and vacation , i would highly not recommend this hotel.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r61042437-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>61042437</t>
+  </si>
+  <si>
+    <t>04/11/2010</t>
+  </si>
+  <si>
+    <t>I love this place! The location can't be...</t>
+  </si>
+  <si>
+    <t>I love this place! The location can't be better, the value is unmatched, and Michael at the front desk is pivot point! I suppose I could ramble about this place on and on but I think if I said "you won't be disappointed" would sum it up. A full breakfast in the morning and cookies each night...it's ideal for the average traveler. If you want to truly see the value of your dollar, stay at the aurora express - I can't say enough good about it!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r58843164-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>58843164</t>
+  </si>
+  <si>
+    <t>03/17/2010</t>
+  </si>
+  <si>
+    <t>Best Value Best Service</t>
+  </si>
+  <si>
+    <t>I travel alot and stumbled upon this Hotel and I'm glad I did.  The people at this particular property are what make it a cut above the others in it's own chain AND others in the chains they compete with or even aspire to compete with.  Clean rooms, good breakfasts are a must have and they deliver but here the management and staff add the extras--cocktail receptions, water, cookies--kindness.  Reliable value for the business traveler and the recreational traveler.</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r57997808-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>57997808</t>
+  </si>
+  <si>
+    <t>03/07/2010</t>
+  </si>
+  <si>
+    <t>Excellent place to stay!</t>
+  </si>
+  <si>
+    <t>When I walked in the lobby it was just like the picture posted on Priceline. Stylish and updated.  Most of the time the pictures seem to be from some other place. It was clean, smelled nice and has some of the most friendly staff we've ever encountered.  Matthew and Michael were very helpful by printing maps, giving us weather updates and assisting me when I couldn't get our boarding passes to print in the business center.  Our room was large, quiet and clean.  We plan to continue to stay at this Holiday Inn Express because of the friendly staff, hot breakfasts, clean rooms and of course the complimentary cookies in the evening.   Nancy B. Rockport, TXMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2010</t>
+  </si>
+  <si>
+    <t>When I walked in the lobby it was just like the picture posted on Priceline. Stylish and updated.  Most of the time the pictures seem to be from some other place. It was clean, smelled nice and has some of the most friendly staff we've ever encountered.  Matthew and Michael were very helpful by printing maps, giving us weather updates and assisting me when I couldn't get our boarding passes to print in the business center.  Our room was large, quiet and clean.  We plan to continue to stay at this Holiday Inn Express because of the friendly staff, hot breakfasts, clean rooms and of course the complimentary cookies in the evening.   Nancy B. Rockport, TXMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r55986728-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>55986728</t>
+  </si>
+  <si>
+    <t>02/14/2010</t>
+  </si>
+  <si>
+    <t>Couldn't be happpier!</t>
+  </si>
+  <si>
+    <t>I had to travel to Denver in the dead of winter for Biz and was not looking forward to it at all. In checking in I was greeted and instantly clicked with the front desk man who I only knew as "Mike". Well just to say it simply Mike made my trip. Everyday we chatted about where to eat or go during my off time. Mike made my trip. I felt like I had a friend and was never lonely. My room was nice and very clean and any time i have to go back i will be staying with my buddy Mike!</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r55684402-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>55684402</t>
+  </si>
+  <si>
+    <t>02/10/2010</t>
+  </si>
+  <si>
+    <t>I can't come back soon enough...</t>
+  </si>
+  <si>
+    <t>A friend and I flew into Denver for a funeral.  Not a real happy time.  We arrived at the hotel we originally made reservations at and were less than impressed.  It was a scary neighborhood and we were nervous about staying, but we had plans that had to be taken care of, so we decided to wait it out.  After taking care of business, we returned to our rooms to discover the party was ON in the room above us...  Security was supposedly watching these people, but it didn't stop them from going strong (inside their rooms and outside ours) until 3 am.  We had dropped off a friend earlier in the evening at the Holiday Inn Express and found it to be a completely different world.  When we got up the next day, I called the Holiday Inn, explained our situation and requested to be able to check in immediately.  The young lady was very gracious to us and when we got there, everything was in order and we checked right in.  The room was wonderful, the hotel was clean and friendly and obviously rather new.  We truly enjoyed the rest of our time there.  The icing on the cake was wonderul young man behind the desk for most of the time we were there.  His name is Michael and he was not only very good at his job, but had a heck of a personality to go with...A friend and I flew into Denver for a funeral.  Not a real happy time.  We arrived at the hotel we originally made reservations at and were less than impressed.  It was a scary neighborhood and we were nervous about staying, but we had plans that had to be taken care of, so we decided to wait it out.  After taking care of business, we returned to our rooms to discover the party was ON in the room above us...  Security was supposedly watching these people, but it didn't stop them from going strong (inside their rooms and outside ours) until 3 am.  We had dropped off a friend earlier in the evening at the Holiday Inn Express and found it to be a completely different world.  When we got up the next day, I called the Holiday Inn, explained our situation and requested to be able to check in immediately.  The young lady was very gracious to us and when we got there, everything was in order and we checked right in.  The room was wonderful, the hotel was clean and friendly and obviously rather new.  We truly enjoyed the rest of our time there.  The icing on the cake was wonderul young man behind the desk for most of the time we were there.  His name is Michael and he was not only very good at his job, but had a heck of a personality to go with it.  We spent quite some time just talking to him throughout the day.  Wonderful experience..MoreShow less</t>
+  </si>
+  <si>
+    <t>A friend and I flew into Denver for a funeral.  Not a real happy time.  We arrived at the hotel we originally made reservations at and were less than impressed.  It was a scary neighborhood and we were nervous about staying, but we had plans that had to be taken care of, so we decided to wait it out.  After taking care of business, we returned to our rooms to discover the party was ON in the room above us...  Security was supposedly watching these people, but it didn't stop them from going strong (inside their rooms and outside ours) until 3 am.  We had dropped off a friend earlier in the evening at the Holiday Inn Express and found it to be a completely different world.  When we got up the next day, I called the Holiday Inn, explained our situation and requested to be able to check in immediately.  The young lady was very gracious to us and when we got there, everything was in order and we checked right in.  The room was wonderful, the hotel was clean and friendly and obviously rather new.  We truly enjoyed the rest of our time there.  The icing on the cake was wonderul young man behind the desk for most of the time we were there.  His name is Michael and he was not only very good at his job, but had a heck of a personality to go with...A friend and I flew into Denver for a funeral.  Not a real happy time.  We arrived at the hotel we originally made reservations at and were less than impressed.  It was a scary neighborhood and we were nervous about staying, but we had plans that had to be taken care of, so we decided to wait it out.  After taking care of business, we returned to our rooms to discover the party was ON in the room above us...  Security was supposedly watching these people, but it didn't stop them from going strong (inside their rooms and outside ours) until 3 am.  We had dropped off a friend earlier in the evening at the Holiday Inn Express and found it to be a completely different world.  When we got up the next day, I called the Holiday Inn, explained our situation and requested to be able to check in immediately.  The young lady was very gracious to us and when we got there, everything was in order and we checked right in.  The room was wonderful, the hotel was clean and friendly and obviously rather new.  We truly enjoyed the rest of our time there.  The icing on the cake was wonderul young man behind the desk for most of the time we were there.  His name is Michael and he was not only very good at his job, but had a heck of a personality to go with it.  We spent quite some time just talking to him throughout the day.  Wonderful experience..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r55103315-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>55103315</t>
+  </si>
+  <si>
+    <t>02/03/2010</t>
+  </si>
+  <si>
+    <t>WOW - its an experience!</t>
+  </si>
+  <si>
+    <t>We had to come to Aurora to visit my father in the hospital. This location is right across the street! The staff is unbelievable! There is one in particular who goes above and beyond what I could have imagined...Michael went the extra distance to make sure we were comfortable during our stay and always had the best personality and was so outgoing. He made me feel like I was family. If you ever need anything, ask for him!  You will see what I mean.  The breakfast and evening receptions are truly a classy touch.  STAY HERE if you need to come to Aurora!  You wont be disappointed!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r45786734-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>45786734</t>
+  </si>
+  <si>
+    <t>10/04/2009</t>
+  </si>
+  <si>
+    <t>Try to get the coupon rate? Don't bother</t>
+  </si>
+  <si>
+    <t>We where early on the day and there were rooms but when we said we had a coupon a manager came. He was not willing to give us a room for the coupon rate (It would be almost the double). And not only us but also other people which were waiting behind us. 4 people left the hotel very disappointed. Maybe the place isn't too bad but the management is terrible that's why I would not recommend to visit this hotel..</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r26868675-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>26868675</t>
+  </si>
+  <si>
+    <t>03/26/2009</t>
+  </si>
+  <si>
+    <t>A good place to stay when you have business nearby.</t>
+  </si>
+  <si>
+    <t>I have stayed here annually over several years each time for several days doing family business. I liked it when it was a Hampton Inn; I like it as a HIExpress. It is not a resort hotel or a spa, and I would not pay for that on this type of trip. This estblishment is reasonable when one needs to be near family, hospital center(s) on this side of town, etc. Apparently folks on business trips agree; there are always several when I am here. It is easy to get to/from airport, but far enough that there is no airport noise. The outdoor pool is not open in March, but I have no time for it anyway. Staff has been excellent each visit. WiFi has improved at each visit, and I have never had major problems with it. Signal is strong; emitters now seem to be placed for good reception in all rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I have stayed here annually over several years each time for several days doing family business. I liked it when it was a Hampton Inn; I like it as a HIExpress. It is not a resort hotel or a spa, and I would not pay for that on this type of trip. This estblishment is reasonable when one needs to be near family, hospital center(s) on this side of town, etc. Apparently folks on business trips agree; there are always several when I am here. It is easy to get to/from airport, but far enough that there is no airport noise. The outdoor pool is not open in March, but I have no time for it anyway. Staff has been excellent each visit. WiFi has improved at each visit, and I have never had major problems with it. Signal is strong; emitters now seem to be placed for good reception in all rooms.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r16151141-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>16151141</t>
+  </si>
+  <si>
+    <t>05/17/2008</t>
+  </si>
+  <si>
+    <t>Terrible customer service. Does not honor their own cancellation policy.</t>
+  </si>
+  <si>
+    <t>I am a business travel who travel all over the country. I booked this hotel for April 7, 2008 for 10 nights. Changed the arrival date to April 21, 2008 on March 15, 2008 due to business needs. They charged my first night even though the cancellation policy clearly states that I can cancel by 6pm on day of arrival. Refused to give me credit. I am still working with my credit card company to try to get credit back. Very poor customer service. Does not return phone calls. I would recommend to stay away from this hotel.</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r8134285-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>8134285</t>
+  </si>
+  <si>
+    <t>07/16/2007</t>
+  </si>
+  <si>
+    <t>good HIx, lots of business travellers</t>
+  </si>
+  <si>
+    <t>Frequent HI traveller.  Stayed here one night on points.  Best deal closest to airport, but a little hard to find if not familiar with the area.  LOTS of middle class business travellers.  Pretty nice outdoor pool and deck area, walled in and out of the way, seemed well maintained.  Guests are too busy coming and going to use it much I guess.  Very nice large breakfast area, but all HIx breakfasts seem to be the same when you had over a 100 of them.  Room OK and clean.  Not really walking distance to anything.  Next to a busy road.  I'd stay here again anytime, for a short stay.</t>
+  </si>
+  <si>
+    <t>June 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r2681307-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>2681307</t>
+  </si>
+  <si>
+    <t>10/09/2004</t>
+  </si>
+  <si>
+    <t>Clean and Convenient to Airport</t>
+  </si>
+  <si>
+    <t>We stayed here October 4 &amp; 5, 2004.  The hotel staff was very friendly and helpful.  Breakfast was good, but they need to be sure to keep the scrambled egg patties hot.  The ones they had on the first morning were cold in the front of the warmer, but they were fine the second morning.  A microwave in the breakfast area would be nice to heat up a muffin, etc. as well.   It was a little disconcerting to see a security bar on the sliding window on the first floor rooms, but we never saw any reason of a need for them.  The cleaning staff did an excellent job as was evidenced by the cleanliness of the room.  It is very close to the airport, easily accessed from I-225, near a shoppings center, and had excellent rates.  We would stay there again if the opportunity occurred.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here October 4 &amp; 5, 2004.  The hotel staff was very friendly and helpful.  Breakfast was good, but they need to be sure to keep the scrambled egg patties hot.  The ones they had on the first morning were cold in the front of the warmer, but they were fine the second morning.  A microwave in the breakfast area would be nice to heat up a muffin, etc. as well.   It was a little disconcerting to see a security bar on the sliding window on the first floor rooms, but we never saw any reason of a need for them.  The cleaning staff did an excellent job as was evidenced by the cleanliness of the room.  It is very close to the airport, easily accessed from I-225, near a shoppings center, and had excellent rates.  We would stay there again if the opportunity occurred.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120068-r1787984-Holiday_Inn_Express_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>1787984</t>
+  </si>
+  <si>
+    <t>04/15/2004</t>
+  </si>
+  <si>
+    <t>Great hotel convenient to airport</t>
+  </si>
+  <si>
+    <t>This is a very clean Hampton Inn with a friendly staff. It is very inexpensive and only 15 minutes from the airport (DIA). This is a good place to stay if on business and want to spend a night close to the airport. My room was only $57. Compare that to the Hilton Garden Inn in Aurora for $159. Have stayed at both and would stay at this Hampton Inn again. Excellent price...and clean! Plenty of restaurants, near mall and movie theaters.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2697,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2729,6442 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>92</v>
+      </c>
+      <c r="X7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>101</v>
+      </c>
+      <c r="X8" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>112</v>
+      </c>
+      <c r="J10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K10" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>126</v>
+      </c>
+      <c r="O12" t="s">
+        <v>91</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+      <c r="J13" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s">
+        <v>131</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>91</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>132</v>
+      </c>
+      <c r="X14" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" t="s">
+        <v>150</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>151</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>153</v>
+      </c>
+      <c r="J17" t="s">
+        <v>154</v>
+      </c>
+      <c r="K17" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>156</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>91</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" t="s">
+        <v>172</v>
+      </c>
+      <c r="K19" t="s">
+        <v>173</v>
+      </c>
+      <c r="L19" t="s">
+        <v>174</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>175</v>
+      </c>
+      <c r="O19" t="s">
+        <v>72</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>177</v>
+      </c>
+      <c r="J20" t="s">
+        <v>178</v>
+      </c>
+      <c r="K20" t="s">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>181</v>
+      </c>
+      <c r="O20" t="s">
+        <v>72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>182</v>
+      </c>
+      <c r="X20" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>181</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>190</v>
+      </c>
+      <c r="X21" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>194</v>
+      </c>
+      <c r="J22" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" t="s">
+        <v>196</v>
+      </c>
+      <c r="L22" t="s">
+        <v>197</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>72</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>199</v>
+      </c>
+      <c r="J23" t="s">
+        <v>200</v>
+      </c>
+      <c r="K23" t="s">
+        <v>201</v>
+      </c>
+      <c r="L23" t="s">
+        <v>202</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" t="s">
+        <v>91</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+      <c r="X23" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>206</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>207</v>
+      </c>
+      <c r="J24" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" t="s">
+        <v>209</v>
+      </c>
+      <c r="L24" t="s">
+        <v>210</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>211</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>203</v>
+      </c>
+      <c r="X24" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>181</v>
+      </c>
+      <c r="O25" t="s">
+        <v>218</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>219</v>
+      </c>
+      <c r="X25" t="s">
+        <v>204</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>211</v>
+      </c>
+      <c r="O26" t="s">
+        <v>91</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>227</v>
+      </c>
+      <c r="J27" t="s">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s">
+        <v>229</v>
+      </c>
+      <c r="L27" t="s">
+        <v>230</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>232</v>
+      </c>
+      <c r="X27" t="s">
+        <v>233</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>235</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" t="s">
+        <v>238</v>
+      </c>
+      <c r="L28" t="s">
+        <v>239</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>231</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>240</v>
+      </c>
+      <c r="X28" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>243</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>244</v>
+      </c>
+      <c r="J29" t="s">
+        <v>245</v>
+      </c>
+      <c r="K29" t="s">
+        <v>246</v>
+      </c>
+      <c r="L29" t="s">
+        <v>247</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>248</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>249</v>
+      </c>
+      <c r="X29" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>254</v>
+      </c>
+      <c r="L30" t="s">
+        <v>255</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>248</v>
+      </c>
+      <c r="O30" t="s">
+        <v>72</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>249</v>
+      </c>
+      <c r="X30" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>258</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>260</v>
+      </c>
+      <c r="L31" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>248</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>262</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>263</v>
+      </c>
+      <c r="J32" t="s">
+        <v>264</v>
+      </c>
+      <c r="K32" t="s">
+        <v>265</v>
+      </c>
+      <c r="L32" t="s">
+        <v>266</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>267</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>268</v>
+      </c>
+      <c r="X32" t="s">
+        <v>269</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>272</v>
+      </c>
+      <c r="J33" t="s">
+        <v>273</v>
+      </c>
+      <c r="K33" t="s">
+        <v>274</v>
+      </c>
+      <c r="L33" t="s">
+        <v>275</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>276</v>
+      </c>
+      <c r="O33" t="s">
+        <v>218</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>277</v>
+      </c>
+      <c r="X33" t="s">
+        <v>278</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>281</v>
+      </c>
+      <c r="J34" t="s">
+        <v>282</v>
+      </c>
+      <c r="K34" t="s">
+        <v>283</v>
+      </c>
+      <c r="L34" t="s">
+        <v>284</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>285</v>
+      </c>
+      <c r="X34" t="s">
+        <v>286</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>289</v>
+      </c>
+      <c r="J35" t="s">
+        <v>290</v>
+      </c>
+      <c r="K35" t="s">
+        <v>291</v>
+      </c>
+      <c r="L35" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>293</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>294</v>
+      </c>
+      <c r="X35" t="s">
+        <v>295</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>293</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>302</v>
+      </c>
+      <c r="X36" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>305</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>306</v>
+      </c>
+      <c r="J37" t="s">
+        <v>307</v>
+      </c>
+      <c r="K37" t="s">
+        <v>308</v>
+      </c>
+      <c r="L37" t="s">
+        <v>309</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>293</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>310</v>
+      </c>
+      <c r="X37" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>312</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>313</v>
+      </c>
+      <c r="J38" t="s">
+        <v>314</v>
+      </c>
+      <c r="K38" t="s">
+        <v>315</v>
+      </c>
+      <c r="L38" t="s">
+        <v>316</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>317</v>
+      </c>
+      <c r="X38" t="s">
+        <v>318</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>321</v>
+      </c>
+      <c r="J39" t="s">
+        <v>322</v>
+      </c>
+      <c r="K39" t="s">
+        <v>323</v>
+      </c>
+      <c r="L39" t="s">
+        <v>324</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>325</v>
+      </c>
+      <c r="X39" t="s">
+        <v>326</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>328</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>329</v>
+      </c>
+      <c r="J40" t="s">
+        <v>330</v>
+      </c>
+      <c r="K40" t="s">
+        <v>331</v>
+      </c>
+      <c r="L40" t="s">
+        <v>332</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>333</v>
+      </c>
+      <c r="O40" t="s">
+        <v>218</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>335</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>336</v>
+      </c>
+      <c r="J41" t="s">
+        <v>337</v>
+      </c>
+      <c r="K41" t="s">
+        <v>338</v>
+      </c>
+      <c r="L41" t="s">
+        <v>339</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>333</v>
+      </c>
+      <c r="O41" t="s">
+        <v>218</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>340</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" t="s">
+        <v>342</v>
+      </c>
+      <c r="K42" t="s">
+        <v>343</v>
+      </c>
+      <c r="L42" t="s">
+        <v>344</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>345</v>
+      </c>
+      <c r="O42" t="s">
+        <v>91</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>346</v>
+      </c>
+      <c r="X42" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>349</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>350</v>
+      </c>
+      <c r="J43" t="s">
+        <v>351</v>
+      </c>
+      <c r="K43" t="s">
+        <v>352</v>
+      </c>
+      <c r="L43" t="s">
+        <v>353</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>354</v>
+      </c>
+      <c r="O43" t="s">
+        <v>91</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>356</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>357</v>
+      </c>
+      <c r="J44" t="s">
+        <v>358</v>
+      </c>
+      <c r="K44" t="s">
+        <v>359</v>
+      </c>
+      <c r="L44" t="s">
+        <v>360</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>361</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>362</v>
+      </c>
+      <c r="X44" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>365</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>366</v>
+      </c>
+      <c r="J45" t="s">
+        <v>367</v>
+      </c>
+      <c r="K45" t="s">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s">
+        <v>369</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>1</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>370</v>
+      </c>
+      <c r="X45" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>373</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>374</v>
+      </c>
+      <c r="J46" t="s">
+        <v>375</v>
+      </c>
+      <c r="K46" t="s">
+        <v>376</v>
+      </c>
+      <c r="L46" t="s">
+        <v>377</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>370</v>
+      </c>
+      <c r="X46" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>380</v>
+      </c>
+      <c r="J47" t="s">
+        <v>381</v>
+      </c>
+      <c r="K47" t="s">
+        <v>382</v>
+      </c>
+      <c r="L47" t="s">
+        <v>383</v>
+      </c>
+      <c r="M47" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s">
+        <v>91</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>385</v>
+      </c>
+      <c r="X47" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>388</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>389</v>
+      </c>
+      <c r="J48" t="s">
+        <v>390</v>
+      </c>
+      <c r="K48" t="s">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s">
+        <v>392</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>393</v>
+      </c>
+      <c r="O48" t="s">
+        <v>91</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>394</v>
+      </c>
+      <c r="X48" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>397</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>398</v>
+      </c>
+      <c r="J49" t="s">
+        <v>399</v>
+      </c>
+      <c r="K49" t="s">
+        <v>400</v>
+      </c>
+      <c r="L49" t="s">
+        <v>401</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>402</v>
+      </c>
+      <c r="O49" t="s">
+        <v>91</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>403</v>
+      </c>
+      <c r="X49" t="s">
+        <v>404</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>406</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>407</v>
+      </c>
+      <c r="J50" t="s">
+        <v>408</v>
+      </c>
+      <c r="K50" t="s">
+        <v>409</v>
+      </c>
+      <c r="L50" t="s">
+        <v>410</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>402</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>411</v>
+      </c>
+      <c r="X50" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>414</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>415</v>
+      </c>
+      <c r="J51" t="s">
+        <v>416</v>
+      </c>
+      <c r="K51" t="s">
+        <v>417</v>
+      </c>
+      <c r="L51" t="s">
+        <v>418</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>419</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>420</v>
+      </c>
+      <c r="X51" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>423</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>424</v>
+      </c>
+      <c r="J52" t="s">
+        <v>425</v>
+      </c>
+      <c r="K52" t="s">
+        <v>426</v>
+      </c>
+      <c r="L52" t="s">
+        <v>427</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>419</v>
+      </c>
+      <c r="O52" t="s">
+        <v>72</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>428</v>
+      </c>
+      <c r="X52" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>431</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>432</v>
+      </c>
+      <c r="J53" t="s">
+        <v>433</v>
+      </c>
+      <c r="K53" t="s">
+        <v>434</v>
+      </c>
+      <c r="L53" t="s">
+        <v>435</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>436</v>
+      </c>
+      <c r="O53" t="s">
+        <v>91</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>2</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>437</v>
+      </c>
+      <c r="X53" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>440</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>441</v>
+      </c>
+      <c r="J54" t="s">
+        <v>442</v>
+      </c>
+      <c r="K54" t="s">
+        <v>443</v>
+      </c>
+      <c r="L54" t="s">
+        <v>444</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>436</v>
+      </c>
+      <c r="O54" t="s">
+        <v>218</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>445</v>
+      </c>
+      <c r="X54" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>448</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>449</v>
+      </c>
+      <c r="J55" t="s">
+        <v>450</v>
+      </c>
+      <c r="K55" t="s">
+        <v>451</v>
+      </c>
+      <c r="L55" t="s">
+        <v>452</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>453</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>445</v>
+      </c>
+      <c r="X55" t="s">
+        <v>446</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>455</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>456</v>
+      </c>
+      <c r="J56" t="s">
+        <v>457</v>
+      </c>
+      <c r="K56" t="s">
+        <v>458</v>
+      </c>
+      <c r="L56" t="s">
+        <v>459</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>460</v>
+      </c>
+      <c r="O56" t="s">
+        <v>72</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>461</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>462</v>
+      </c>
+      <c r="J57" t="s">
+        <v>457</v>
+      </c>
+      <c r="K57" t="s">
+        <v>463</v>
+      </c>
+      <c r="L57" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>460</v>
+      </c>
+      <c r="O57" t="s">
+        <v>91</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>3</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>466</v>
+      </c>
+      <c r="J58" t="s">
+        <v>467</v>
+      </c>
+      <c r="K58" t="s">
+        <v>468</v>
+      </c>
+      <c r="L58" t="s">
+        <v>469</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>470</v>
+      </c>
+      <c r="O58" t="s">
+        <v>72</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>471</v>
+      </c>
+      <c r="X58" t="s">
+        <v>472</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>474</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>475</v>
+      </c>
+      <c r="J59" t="s">
+        <v>476</v>
+      </c>
+      <c r="K59" t="s">
+        <v>477</v>
+      </c>
+      <c r="L59" t="s">
+        <v>478</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>479</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J60" t="s">
+        <v>482</v>
+      </c>
+      <c r="K60" t="s">
+        <v>483</v>
+      </c>
+      <c r="L60" t="s">
+        <v>484</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>485</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>487</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>488</v>
+      </c>
+      <c r="J61" t="s">
+        <v>489</v>
+      </c>
+      <c r="K61" t="s">
+        <v>490</v>
+      </c>
+      <c r="L61" t="s">
+        <v>491</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>4</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>492</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>493</v>
+      </c>
+      <c r="J62" t="s">
+        <v>494</v>
+      </c>
+      <c r="K62" t="s">
+        <v>495</v>
+      </c>
+      <c r="L62" t="s">
+        <v>496</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>497</v>
+      </c>
+      <c r="O62" t="s">
+        <v>91</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>498</v>
+      </c>
+      <c r="X62" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>501</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>502</v>
+      </c>
+      <c r="J63" t="s">
+        <v>503</v>
+      </c>
+      <c r="K63" t="s">
+        <v>504</v>
+      </c>
+      <c r="L63" t="s">
+        <v>505</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>506</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>507</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>508</v>
+      </c>
+      <c r="J64" t="s">
+        <v>509</v>
+      </c>
+      <c r="K64" t="s">
+        <v>510</v>
+      </c>
+      <c r="L64" t="s">
+        <v>511</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>512</v>
+      </c>
+      <c r="O64" t="s">
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>513</v>
+      </c>
+      <c r="X64" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>516</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>517</v>
+      </c>
+      <c r="J65" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s">
+        <v>521</v>
+      </c>
+      <c r="O65" t="s">
+        <v>91</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>522</v>
+      </c>
+      <c r="X65" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>525</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>526</v>
+      </c>
+      <c r="J66" t="s">
+        <v>527</v>
+      </c>
+      <c r="K66" t="s">
+        <v>528</v>
+      </c>
+      <c r="L66" t="s">
+        <v>529</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>530</v>
+      </c>
+      <c r="O66" t="s">
+        <v>91</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>2</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>531</v>
+      </c>
+      <c r="X66" t="s">
+        <v>532</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>534</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>535</v>
+      </c>
+      <c r="J67" t="s">
+        <v>536</v>
+      </c>
+      <c r="K67" t="s">
+        <v>537</v>
+      </c>
+      <c r="L67" t="s">
+        <v>538</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>530</v>
+      </c>
+      <c r="O67" t="s">
+        <v>539</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>2</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>540</v>
+      </c>
+      <c r="X67" t="s">
+        <v>541</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>543</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>544</v>
+      </c>
+      <c r="J68" t="s">
+        <v>545</v>
+      </c>
+      <c r="K68" t="s">
+        <v>546</v>
+      </c>
+      <c r="L68" t="s">
+        <v>547</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="s">
+        <v>548</v>
+      </c>
+      <c r="O68" t="s">
+        <v>91</v>
+      </c>
+      <c r="P68" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>1</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>549</v>
+      </c>
+      <c r="X68" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>552</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>553</v>
+      </c>
+      <c r="J69" t="s">
+        <v>554</v>
+      </c>
+      <c r="K69" t="s">
+        <v>555</v>
+      </c>
+      <c r="L69" t="s">
+        <v>556</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>549</v>
+      </c>
+      <c r="X69" t="s">
+        <v>550</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>558</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>559</v>
+      </c>
+      <c r="J70" t="s">
+        <v>560</v>
+      </c>
+      <c r="K70" t="s">
+        <v>561</v>
+      </c>
+      <c r="L70" t="s">
+        <v>562</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>563</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>565</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>566</v>
+      </c>
+      <c r="J71" t="s">
+        <v>567</v>
+      </c>
+      <c r="K71" t="s">
+        <v>568</v>
+      </c>
+      <c r="L71" t="s">
+        <v>569</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>570</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>2</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>2</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>571</v>
+      </c>
+      <c r="X71" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>574</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>575</v>
+      </c>
+      <c r="J72" t="s">
+        <v>576</v>
+      </c>
+      <c r="K72" t="s">
+        <v>577</v>
+      </c>
+      <c r="L72" t="s">
+        <v>578</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="s">
+        <v>570</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>1</v>
+      </c>
+      <c r="R72" t="n">
+        <v>1</v>
+      </c>
+      <c r="S72" t="n">
+        <v>1</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>579</v>
+      </c>
+      <c r="X72" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>582</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>583</v>
+      </c>
+      <c r="J73" t="s">
+        <v>584</v>
+      </c>
+      <c r="K73" t="s">
+        <v>585</v>
+      </c>
+      <c r="L73" t="s">
+        <v>586</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>563</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>587</v>
+      </c>
+      <c r="X73" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>590</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>591</v>
+      </c>
+      <c r="J74" t="s">
+        <v>592</v>
+      </c>
+      <c r="K74" t="s">
+        <v>593</v>
+      </c>
+      <c r="L74" t="s">
+        <v>594</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>595</v>
+      </c>
+      <c r="O74" t="s">
+        <v>218</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>596</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>597</v>
+      </c>
+      <c r="J75" t="s">
+        <v>592</v>
+      </c>
+      <c r="K75" t="s">
+        <v>598</v>
+      </c>
+      <c r="L75" t="s">
+        <v>599</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="s">
+        <v>595</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>571</v>
+      </c>
+      <c r="X75" t="s">
+        <v>572</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>601</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>602</v>
+      </c>
+      <c r="J76" t="s">
+        <v>603</v>
+      </c>
+      <c r="K76" t="s">
+        <v>604</v>
+      </c>
+      <c r="L76" t="s">
+        <v>605</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>606</v>
+      </c>
+      <c r="O76" t="s">
+        <v>72</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>607</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>608</v>
+      </c>
+      <c r="J77" t="s">
+        <v>609</v>
+      </c>
+      <c r="K77" t="s">
+        <v>610</v>
+      </c>
+      <c r="L77" t="s">
+        <v>611</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>612</v>
+      </c>
+      <c r="O77" t="s">
+        <v>72</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>614</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>615</v>
+      </c>
+      <c r="J78" t="s">
+        <v>616</v>
+      </c>
+      <c r="K78" t="s">
+        <v>617</v>
+      </c>
+      <c r="L78" t="s">
+        <v>618</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>619</v>
+      </c>
+      <c r="O78" t="s">
+        <v>91</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>621</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>622</v>
+      </c>
+      <c r="J79" t="s">
+        <v>623</v>
+      </c>
+      <c r="K79" t="s">
+        <v>624</v>
+      </c>
+      <c r="L79" t="s">
+        <v>625</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>626</v>
+      </c>
+      <c r="O79" t="s">
+        <v>72</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>627</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>628</v>
+      </c>
+      <c r="J80" t="s">
+        <v>629</v>
+      </c>
+      <c r="K80" t="s">
+        <v>114</v>
+      </c>
+      <c r="L80" t="s">
+        <v>630</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>631</v>
+      </c>
+      <c r="O80" t="s">
+        <v>72</v>
+      </c>
+      <c r="P80" t="s"/>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="s"/>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>632</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>633</v>
+      </c>
+      <c r="J81" t="s">
+        <v>634</v>
+      </c>
+      <c r="K81" t="s">
+        <v>635</v>
+      </c>
+      <c r="L81" t="s">
+        <v>636</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>637</v>
+      </c>
+      <c r="O81" t="s">
+        <v>91</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>639</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>640</v>
+      </c>
+      <c r="J82" t="s">
+        <v>641</v>
+      </c>
+      <c r="K82" t="s">
+        <v>642</v>
+      </c>
+      <c r="L82" t="s">
+        <v>643</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>637</v>
+      </c>
+      <c r="O82" t="s">
+        <v>91</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>645</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>646</v>
+      </c>
+      <c r="J83" t="s">
+        <v>647</v>
+      </c>
+      <c r="K83" t="s">
+        <v>648</v>
+      </c>
+      <c r="L83" t="s">
+        <v>649</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>650</v>
+      </c>
+      <c r="O83" t="s">
+        <v>218</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>651</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>652</v>
+      </c>
+      <c r="J84" t="s">
+        <v>653</v>
+      </c>
+      <c r="K84" t="s">
+        <v>654</v>
+      </c>
+      <c r="L84" t="s">
+        <v>655</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>656</v>
+      </c>
+      <c r="O84" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>2</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>658</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>659</v>
+      </c>
+      <c r="J85" t="s">
+        <v>660</v>
+      </c>
+      <c r="K85" t="s">
+        <v>661</v>
+      </c>
+      <c r="L85" t="s">
+        <v>662</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>656</v>
+      </c>
+      <c r="O85" t="s">
+        <v>91</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>664</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>665</v>
+      </c>
+      <c r="J86" t="s">
+        <v>666</v>
+      </c>
+      <c r="K86" t="s">
+        <v>667</v>
+      </c>
+      <c r="L86" t="s">
+        <v>668</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>669</v>
+      </c>
+      <c r="O86" t="s">
+        <v>218</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>670</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>671</v>
+      </c>
+      <c r="J87" t="s">
+        <v>672</v>
+      </c>
+      <c r="K87" t="s">
+        <v>673</v>
+      </c>
+      <c r="L87" t="s">
+        <v>674</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>669</v>
+      </c>
+      <c r="O87" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>675</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>676</v>
+      </c>
+      <c r="J88" t="s">
+        <v>677</v>
+      </c>
+      <c r="K88" t="s">
+        <v>678</v>
+      </c>
+      <c r="L88" t="s">
+        <v>679</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
+        <v>680</v>
+      </c>
+      <c r="O88" t="s">
+        <v>72</v>
+      </c>
+      <c r="P88" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>1</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2</v>
+      </c>
+      <c r="S88" t="n">
+        <v>1</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>681</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>682</v>
+      </c>
+      <c r="J89" t="s">
+        <v>683</v>
+      </c>
+      <c r="K89" t="s">
+        <v>684</v>
+      </c>
+      <c r="L89" t="s">
+        <v>685</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s"/>
+      <c r="O89" t="s"/>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>686</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>687</v>
+      </c>
+      <c r="J90" t="s">
+        <v>688</v>
+      </c>
+      <c r="K90" t="s">
+        <v>689</v>
+      </c>
+      <c r="L90" t="s">
+        <v>690</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>691</v>
+      </c>
+      <c r="O90" t="s">
+        <v>91</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>692</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>693</v>
+      </c>
+      <c r="J91" t="s">
+        <v>694</v>
+      </c>
+      <c r="K91" t="s">
+        <v>695</v>
+      </c>
+      <c r="L91" t="s">
+        <v>696</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>697</v>
+      </c>
+      <c r="O91" t="s">
+        <v>72</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>699</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>700</v>
+      </c>
+      <c r="J92" t="s">
+        <v>701</v>
+      </c>
+      <c r="K92" t="s">
+        <v>702</v>
+      </c>
+      <c r="L92" t="s">
+        <v>703</v>
+      </c>
+      <c r="M92" t="n">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>704</v>
+      </c>
+      <c r="O92" t="s">
+        <v>91</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>4</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>705</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>706</v>
+      </c>
+      <c r="J93" t="s">
+        <v>707</v>
+      </c>
+      <c r="K93" t="s">
+        <v>708</v>
+      </c>
+      <c r="L93" t="s">
+        <v>709</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>704</v>
+      </c>
+      <c r="O93" t="s">
+        <v>539</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>711</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>712</v>
+      </c>
+      <c r="J94" t="s">
+        <v>713</v>
+      </c>
+      <c r="K94" t="s">
+        <v>714</v>
+      </c>
+      <c r="L94" t="s">
+        <v>715</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>704</v>
+      </c>
+      <c r="O94" t="s">
+        <v>72</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="s"/>
+      <c r="T94" t="s"/>
+      <c r="U94" t="s"/>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>716</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>717</v>
+      </c>
+      <c r="J95" t="s">
+        <v>718</v>
+      </c>
+      <c r="K95" t="s">
+        <v>719</v>
+      </c>
+      <c r="L95" t="s">
+        <v>720</v>
+      </c>
+      <c r="M95" t="n">
+        <v>1</v>
+      </c>
+      <c r="N95" t="s">
+        <v>721</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="s"/>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="s"/>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>722</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>723</v>
+      </c>
+      <c r="J96" t="s">
+        <v>724</v>
+      </c>
+      <c r="K96" t="s">
+        <v>725</v>
+      </c>
+      <c r="L96" t="s">
+        <v>726</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>727</v>
+      </c>
+      <c r="O96" t="s">
+        <v>91</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>729</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>730</v>
+      </c>
+      <c r="J97" t="s">
+        <v>731</v>
+      </c>
+      <c r="K97" t="s">
+        <v>732</v>
+      </c>
+      <c r="L97" t="s">
+        <v>733</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>734</v>
+      </c>
+      <c r="O97" t="s">
+        <v>91</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1</v>
+      </c>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>735</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>736</v>
+      </c>
+      <c r="J98" t="s">
+        <v>737</v>
+      </c>
+      <c r="K98" t="s">
+        <v>738</v>
+      </c>
+      <c r="L98" t="s">
+        <v>739</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>740</v>
+      </c>
+      <c r="O98" t="s">
+        <v>72</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>741</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>742</v>
+      </c>
+      <c r="J99" t="s">
+        <v>743</v>
+      </c>
+      <c r="K99" t="s">
+        <v>744</v>
+      </c>
+      <c r="L99" t="s">
+        <v>745</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="s"/>
+      <c r="S99" t="n">
+        <v>4</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>11002</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>747</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>748</v>
+      </c>
+      <c r="J100" t="s">
+        <v>749</v>
+      </c>
+      <c r="K100" t="s">
+        <v>750</v>
+      </c>
+      <c r="L100" t="s">
+        <v>751</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s"/>
+      <c r="O100" t="s"/>
+      <c r="P100" t="s"/>
+      <c r="Q100" t="s"/>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="s"/>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
